--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9605041895883011</v>
+      </c>
+      <c r="D2">
+        <v>0.9869757742094792</v>
+      </c>
+      <c r="E2">
+        <v>0.9689733042664979</v>
+      </c>
+      <c r="F2">
+        <v>0.9351343620958386</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.029912099182587</v>
+      </c>
+      <c r="J2">
+        <v>0.9839339891365916</v>
+      </c>
+      <c r="K2">
+        <v>0.9986195896282893</v>
+      </c>
+      <c r="L2">
+        <v>0.9808825090938343</v>
+      </c>
+      <c r="M2">
+        <v>0.9475779906203107</v>
+      </c>
+      <c r="N2">
+        <v>0.9853312882599715</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9735975581452516</v>
+      </c>
+      <c r="D3">
+        <v>0.9971240569366858</v>
+      </c>
+      <c r="E3">
+        <v>0.9814548749265561</v>
+      </c>
+      <c r="F3">
+        <v>0.9515873948136813</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.034549703498457</v>
+      </c>
+      <c r="J3">
+        <v>0.9948348059474822</v>
+      </c>
+      <c r="K3">
+        <v>1.007793868733349</v>
+      </c>
+      <c r="L3">
+        <v>0.9923306753761185</v>
+      </c>
+      <c r="M3">
+        <v>0.9628796390133049</v>
+      </c>
+      <c r="N3">
+        <v>0.9962475854810747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9815838160660982</v>
+      </c>
+      <c r="D4">
+        <v>1.003318389381093</v>
+      </c>
+      <c r="E4">
+        <v>0.98907424568967</v>
+      </c>
+      <c r="F4">
+        <v>0.9616076127175022</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.037357357113221</v>
+      </c>
+      <c r="J4">
+        <v>1.00147063673899</v>
+      </c>
+      <c r="K4">
+        <v>1.013376928680803</v>
+      </c>
+      <c r="L4">
+        <v>0.9993063484455312</v>
+      </c>
+      <c r="M4">
+        <v>0.9721926030891667</v>
+      </c>
+      <c r="N4">
+        <v>1.002892839913446</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9848374208045673</v>
+      </c>
+      <c r="D5">
+        <v>1.005842702154745</v>
+      </c>
+      <c r="E5">
+        <v>0.9921797431359397</v>
+      </c>
+      <c r="F5">
+        <v>0.9656873317743958</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.038496045009524</v>
+      </c>
+      <c r="J5">
+        <v>1.004170922857821</v>
+      </c>
+      <c r="K5">
+        <v>1.015648274641257</v>
+      </c>
+      <c r="L5">
+        <v>1.002146481668712</v>
+      </c>
+      <c r="M5">
+        <v>0.9759828022701513</v>
+      </c>
+      <c r="N5">
+        <v>1.005596960748294</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.985377949761052</v>
+      </c>
+      <c r="D6">
+        <v>1.006262107165321</v>
+      </c>
+      <c r="E6">
+        <v>0.9926957431492799</v>
+      </c>
+      <c r="F6">
+        <v>0.9663649855178242</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.038684911706182</v>
+      </c>
+      <c r="J6">
+        <v>1.004619341535058</v>
+      </c>
+      <c r="K6">
+        <v>1.016025426932115</v>
+      </c>
+      <c r="L6">
+        <v>1.002618214559335</v>
+      </c>
+      <c r="M6">
+        <v>0.9766122710309049</v>
+      </c>
+      <c r="N6">
+        <v>1.006046016231487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9816276839536786</v>
+      </c>
+      <c r="D7">
+        <v>1.003352421780511</v>
+      </c>
+      <c r="E7">
+        <v>0.9891161114193949</v>
+      </c>
+      <c r="F7">
+        <v>0.9616626276744108</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.037372730511178</v>
+      </c>
+      <c r="J7">
+        <v>1.00150705688277</v>
+      </c>
+      <c r="K7">
+        <v>1.013407565794043</v>
+      </c>
+      <c r="L7">
+        <v>0.9993446486249394</v>
+      </c>
+      <c r="M7">
+        <v>0.972243720226212</v>
+      </c>
+      <c r="N7">
+        <v>1.002929311778009</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9650381303387177</v>
+      </c>
+      <c r="D8">
+        <v>0.9904887273413858</v>
+      </c>
+      <c r="E8">
+        <v>0.9732939440732166</v>
+      </c>
+      <c r="F8">
+        <v>0.9408357622241352</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.031522457673524</v>
+      </c>
+      <c r="J8">
+        <v>0.9877115069738137</v>
+      </c>
+      <c r="K8">
+        <v>1.001799095092289</v>
+      </c>
+      <c r="L8">
+        <v>0.9848482440465345</v>
+      </c>
+      <c r="M8">
+        <v>0.9528816267649879</v>
+      </c>
+      <c r="N8">
+        <v>0.98911417060581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9313513626669757</v>
+      </c>
+      <c r="D9">
+        <v>0.964426133763741</v>
+      </c>
+      <c r="E9">
+        <v>0.9412289668189692</v>
+      </c>
+      <c r="F9">
+        <v>0.8983349948211514</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.019466078749019</v>
+      </c>
+      <c r="J9">
+        <v>0.9595850839306714</v>
+      </c>
+      <c r="K9">
+        <v>0.9781240044146438</v>
+      </c>
+      <c r="L9">
+        <v>0.9553534149987035</v>
+      </c>
+      <c r="M9">
+        <v>0.91332522972316</v>
+      </c>
+      <c r="N9">
+        <v>0.9609478048158002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.904453163235445</v>
+      </c>
+      <c r="D10">
+        <v>0.9436961031894641</v>
+      </c>
+      <c r="E10">
+        <v>0.9156882084763095</v>
+      </c>
+      <c r="F10">
+        <v>0.8640825963016506</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.009725336596166</v>
+      </c>
+      <c r="J10">
+        <v>0.9370471508954283</v>
+      </c>
+      <c r="K10">
+        <v>0.9591622208056442</v>
+      </c>
+      <c r="L10">
+        <v>0.9317670791568919</v>
+      </c>
+      <c r="M10">
+        <v>0.8814321106084293</v>
+      </c>
+      <c r="N10">
+        <v>0.93837786533051</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8912172602722969</v>
+      </c>
+      <c r="D11">
+        <v>0.9335280788743747</v>
+      </c>
+      <c r="E11">
+        <v>0.9031412237720451</v>
+      </c>
+      <c r="F11">
+        <v>0.8470852425489193</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.004908412733977</v>
+      </c>
+      <c r="J11">
+        <v>0.9259375981777977</v>
+      </c>
+      <c r="K11">
+        <v>0.9498227443352861</v>
+      </c>
+      <c r="L11">
+        <v>0.9201542361595058</v>
+      </c>
+      <c r="M11">
+        <v>0.8656097400078894</v>
+      </c>
+      <c r="N11">
+        <v>0.927252535773737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8859877249164498</v>
+      </c>
+      <c r="D12">
+        <v>0.9295172585595211</v>
+      </c>
+      <c r="E12">
+        <v>0.8981877661148764</v>
+      </c>
+      <c r="F12">
+        <v>0.8403385739032719</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.003002117813487</v>
+      </c>
+      <c r="J12">
+        <v>0.9215452556338684</v>
+      </c>
+      <c r="K12">
+        <v>0.9461319757447574</v>
+      </c>
+      <c r="L12">
+        <v>0.9155651915539077</v>
+      </c>
+      <c r="M12">
+        <v>0.859331192277744</v>
+      </c>
+      <c r="N12">
+        <v>0.9228539555995867</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8871252668500463</v>
+      </c>
+      <c r="D13">
+        <v>0.9303893735306424</v>
+      </c>
+      <c r="E13">
+        <v>0.8992650662720961</v>
+      </c>
+      <c r="F13">
+        <v>0.8418077216383677</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.003416910529119</v>
+      </c>
+      <c r="J13">
+        <v>0.9225008219851474</v>
+      </c>
+      <c r="K13">
+        <v>0.9469348212912625</v>
+      </c>
+      <c r="L13">
+        <v>0.9165634435140049</v>
+      </c>
+      <c r="M13">
+        <v>0.8606983001963467</v>
+      </c>
+      <c r="N13">
+        <v>0.9238108789646898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8907919401084524</v>
+      </c>
+      <c r="D14">
+        <v>0.9332017339223869</v>
+      </c>
+      <c r="E14">
+        <v>0.9027382744343796</v>
+      </c>
+      <c r="F14">
+        <v>0.846537223757963</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.004753432099393</v>
+      </c>
+      <c r="J14">
+        <v>0.9255804262600912</v>
+      </c>
+      <c r="K14">
+        <v>0.9495225828100164</v>
+      </c>
+      <c r="L14">
+        <v>0.9197810216410286</v>
+      </c>
+      <c r="M14">
+        <v>0.8650997026406098</v>
+      </c>
+      <c r="N14">
+        <v>0.9268948566309393</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8930067444046059</v>
+      </c>
+      <c r="D15">
+        <v>0.9349014107471557</v>
+      </c>
+      <c r="E15">
+        <v>0.9048367451993005</v>
+      </c>
+      <c r="F15">
+        <v>0.8493896631856596</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.005560354111007</v>
+      </c>
+      <c r="J15">
+        <v>0.9274402392790535</v>
+      </c>
+      <c r="K15">
+        <v>0.9510856137534935</v>
+      </c>
+      <c r="L15">
+        <v>0.9217244620712532</v>
+      </c>
+      <c r="M15">
+        <v>0.8677545258885159</v>
+      </c>
+      <c r="N15">
+        <v>0.9287573107977122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.905292537960752</v>
+      </c>
+      <c r="D16">
+        <v>0.9443416972609581</v>
+      </c>
+      <c r="E16">
+        <v>0.9164843657063479</v>
+      </c>
+      <c r="F16">
+        <v>0.865156996036655</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.010030369335138</v>
+      </c>
+      <c r="J16">
+        <v>0.9377512947308443</v>
+      </c>
+      <c r="K16">
+        <v>0.9597543663145369</v>
+      </c>
+      <c r="L16">
+        <v>0.9325034092799691</v>
+      </c>
+      <c r="M16">
+        <v>0.8824324008567626</v>
+      </c>
+      <c r="N16">
+        <v>0.9390830091309388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9125312305643501</v>
+      </c>
+      <c r="D17">
+        <v>0.9499128870277761</v>
+      </c>
+      <c r="E17">
+        <v>0.9233526656633475</v>
+      </c>
+      <c r="F17">
+        <v>0.8744065638385524</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.012658426829364</v>
+      </c>
+      <c r="J17">
+        <v>0.943821702140439</v>
+      </c>
+      <c r="K17">
+        <v>0.964860071789333</v>
+      </c>
+      <c r="L17">
+        <v>0.9388527618490051</v>
+      </c>
+      <c r="M17">
+        <v>0.8910444773424745</v>
+      </c>
+      <c r="N17">
+        <v>0.9451620372153408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9166064742312858</v>
+      </c>
+      <c r="D18">
+        <v>0.9530521469572231</v>
+      </c>
+      <c r="E18">
+        <v>0.9272211983415408</v>
+      </c>
+      <c r="F18">
+        <v>0.8796019177040059</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.014135823456021</v>
+      </c>
+      <c r="J18">
+        <v>0.9472375160175049</v>
+      </c>
+      <c r="K18">
+        <v>0.9677336500044017</v>
+      </c>
+      <c r="L18">
+        <v>0.9424267197883508</v>
+      </c>
+      <c r="M18">
+        <v>0.8958820500091138</v>
+      </c>
+      <c r="N18">
+        <v>0.9485827019399116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9179728337926638</v>
+      </c>
+      <c r="D19">
+        <v>0.954105122146929</v>
+      </c>
+      <c r="E19">
+        <v>0.9285185420220559</v>
+      </c>
+      <c r="F19">
+        <v>0.8813420003993421</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.014630794240161</v>
+      </c>
+      <c r="J19">
+        <v>0.948382490727196</v>
+      </c>
+      <c r="K19">
+        <v>0.9686969557776146</v>
+      </c>
+      <c r="L19">
+        <v>0.9436248990603593</v>
+      </c>
+      <c r="M19">
+        <v>0.8975023269480307</v>
+      </c>
+      <c r="N19">
+        <v>0.9497293026450208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9117702178125173</v>
+      </c>
+      <c r="D20">
+        <v>0.9493268791675442</v>
+      </c>
+      <c r="E20">
+        <v>0.9226303985239563</v>
+      </c>
+      <c r="F20">
+        <v>0.8734354510627587</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.012382358522347</v>
+      </c>
+      <c r="J20">
+        <v>0.9431836918227282</v>
+      </c>
+      <c r="K20">
+        <v>0.9643233866201454</v>
+      </c>
+      <c r="L20">
+        <v>0.938185308609095</v>
+      </c>
+      <c r="M20">
+        <v>0.8901402587284063</v>
+      </c>
+      <c r="N20">
+        <v>0.9445231208497979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.889721628773123</v>
+      </c>
+      <c r="D21">
+        <v>0.9323806035954304</v>
+      </c>
+      <c r="E21">
+        <v>0.9017243235934497</v>
+      </c>
+      <c r="F21">
+        <v>0.845157610168459</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.004363378126727</v>
+      </c>
+      <c r="J21">
+        <v>0.9246815620355872</v>
+      </c>
+      <c r="K21">
+        <v>0.9487672221809532</v>
+      </c>
+      <c r="L21">
+        <v>0.9188418216678872</v>
+      </c>
+      <c r="M21">
+        <v>0.8638157380650594</v>
+      </c>
+      <c r="N21">
+        <v>0.9259947159161354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.873976142348612</v>
+      </c>
+      <c r="D22">
+        <v>0.9203199148844478</v>
+      </c>
+      <c r="E22">
+        <v>0.8868187384748983</v>
+      </c>
+      <c r="F22">
+        <v>0.8247676576956963</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>0.9986184069722734</v>
+      </c>
+      <c r="J22">
+        <v>0.9114509472451707</v>
+      </c>
+      <c r="K22">
+        <v>0.9376543063964592</v>
+      </c>
+      <c r="L22">
+        <v>0.9050235423527089</v>
+      </c>
+      <c r="M22">
+        <v>0.8448458804597021</v>
+      </c>
+      <c r="N22">
+        <v>0.9127453121351438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8825380445846648</v>
+      </c>
+      <c r="D23">
+        <v>0.9268736422732003</v>
+      </c>
+      <c r="E23">
+        <v>0.8949214171240487</v>
+      </c>
+      <c r="F23">
+        <v>0.8358776689453077</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.001743816030424</v>
+      </c>
+      <c r="J23">
+        <v>0.9186469918177164</v>
+      </c>
+      <c r="K23">
+        <v>0.9436972421637625</v>
+      </c>
+      <c r="L23">
+        <v>0.9125378225261055</v>
+      </c>
+      <c r="M23">
+        <v>0.8551805000624468</v>
+      </c>
+      <c r="N23">
+        <v>0.9199515759163802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9121145357717132</v>
+      </c>
+      <c r="D24">
+        <v>0.9495920080504684</v>
+      </c>
+      <c r="E24">
+        <v>0.9229571805093977</v>
+      </c>
+      <c r="F24">
+        <v>0.8738748650982386</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.012507271575935</v>
+      </c>
+      <c r="J24">
+        <v>0.9434723630493158</v>
+      </c>
+      <c r="K24">
+        <v>0.9645662108899138</v>
+      </c>
+      <c r="L24">
+        <v>0.9384872977550522</v>
+      </c>
+      <c r="M24">
+        <v>0.890549403316806</v>
+      </c>
+      <c r="N24">
+        <v>0.9448122020226384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9407094061036839</v>
+      </c>
+      <c r="D25">
+        <v>0.9716564445080207</v>
+      </c>
+      <c r="E25">
+        <v>0.9501278644319581</v>
+      </c>
+      <c r="F25">
+        <v>0.9101779793937218</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.022834439652626</v>
+      </c>
+      <c r="J25">
+        <v>0.9674112618482436</v>
+      </c>
+      <c r="K25">
+        <v>0.9847112931164965</v>
+      </c>
+      <c r="L25">
+        <v>0.9635530841242991</v>
+      </c>
+      <c r="M25">
+        <v>0.9243514980024763</v>
+      </c>
+      <c r="N25">
+        <v>0.9687850968036906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9605041895883011</v>
+        <v>1.005287186275768</v>
       </c>
       <c r="D2">
-        <v>0.9869757742094792</v>
+        <v>1.022201536917873</v>
       </c>
       <c r="E2">
-        <v>0.9689733042664979</v>
+        <v>1.022585538181629</v>
       </c>
       <c r="F2">
-        <v>0.9351343620958386</v>
+        <v>1.028578478004094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029912099182587</v>
+        <v>1.048946837316028</v>
       </c>
       <c r="J2">
-        <v>0.9839339891365916</v>
+        <v>1.027310900378673</v>
       </c>
       <c r="K2">
-        <v>0.9986195896282893</v>
+        <v>1.033359996995594</v>
       </c>
       <c r="L2">
-        <v>0.9808825090938343</v>
+        <v>1.033738938434686</v>
       </c>
       <c r="M2">
-        <v>0.9475779906203107</v>
+        <v>1.039653524706778</v>
       </c>
       <c r="N2">
-        <v>0.9853312882599715</v>
+        <v>1.028769799691424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9735975581452516</v>
+        <v>1.010499238851308</v>
       </c>
       <c r="D3">
-        <v>0.9971240569366858</v>
+        <v>1.02597234199883</v>
       </c>
       <c r="E3">
-        <v>0.9814548749265561</v>
+        <v>1.027460740898321</v>
       </c>
       <c r="F3">
-        <v>0.9515873948136813</v>
+        <v>1.033765395863634</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034549703498457</v>
+        <v>1.050516399846056</v>
       </c>
       <c r="J3">
-        <v>0.9948348059474822</v>
+        <v>1.030707719352527</v>
       </c>
       <c r="K3">
-        <v>1.007793868733349</v>
+        <v>1.036283346465045</v>
       </c>
       <c r="L3">
-        <v>0.9923306753761185</v>
+        <v>1.037753911229358</v>
       </c>
       <c r="M3">
-        <v>0.9628796390133049</v>
+        <v>1.043983728441761</v>
       </c>
       <c r="N3">
-        <v>0.9962475854810747</v>
+        <v>1.032171442537836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9815838160660982</v>
+        <v>1.013794788764575</v>
       </c>
       <c r="D4">
-        <v>1.003318389381093</v>
+        <v>1.02835718015572</v>
       </c>
       <c r="E4">
-        <v>0.98907424568967</v>
+        <v>1.03054850868556</v>
       </c>
       <c r="F4">
-        <v>0.9616076127175022</v>
+        <v>1.037050120007763</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037357357113221</v>
+        <v>1.051494360999609</v>
       </c>
       <c r="J4">
-        <v>1.00147063673899</v>
+        <v>1.032852085915523</v>
       </c>
       <c r="K4">
-        <v>1.013376928680803</v>
+        <v>1.038124993946118</v>
       </c>
       <c r="L4">
-        <v>0.9993063484455312</v>
+        <v>1.04029170699019</v>
       </c>
       <c r="M4">
-        <v>0.9721926030891667</v>
+        <v>1.046721037409646</v>
       </c>
       <c r="N4">
-        <v>1.002892839913446</v>
+        <v>1.034318854347313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9848374208045673</v>
+        <v>1.015162552735426</v>
       </c>
       <c r="D5">
-        <v>1.005842702154745</v>
+        <v>1.029347036203737</v>
       </c>
       <c r="E5">
-        <v>0.9921797431359397</v>
+        <v>1.031831245377954</v>
       </c>
       <c r="F5">
-        <v>0.9656873317743958</v>
+        <v>1.038414570522169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038496045009524</v>
+        <v>1.051896721792992</v>
       </c>
       <c r="J5">
-        <v>1.004170922857821</v>
+        <v>1.033741209031634</v>
       </c>
       <c r="K5">
-        <v>1.015648274641257</v>
+        <v>1.038887660378025</v>
       </c>
       <c r="L5">
-        <v>1.002146481668712</v>
+        <v>1.041344732716217</v>
       </c>
       <c r="M5">
-        <v>0.9759828022701513</v>
+        <v>1.047856912901804</v>
       </c>
       <c r="N5">
-        <v>1.005596960748294</v>
+        <v>1.035209240120233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.985377949761052</v>
+        <v>1.015391190190498</v>
       </c>
       <c r="D6">
-        <v>1.006262107165321</v>
+        <v>1.029512503990923</v>
       </c>
       <c r="E6">
-        <v>0.9926957431492799</v>
+        <v>1.032045739523374</v>
       </c>
       <c r="F6">
-        <v>0.9663649855178242</v>
+        <v>1.038642722432181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038684911706182</v>
+        <v>1.051963772126538</v>
       </c>
       <c r="J6">
-        <v>1.004619341535058</v>
+        <v>1.033889784406893</v>
       </c>
       <c r="K6">
-        <v>1.016025426932115</v>
+        <v>1.039015048537834</v>
       </c>
       <c r="L6">
-        <v>1.002618214559335</v>
+        <v>1.041520742492552</v>
       </c>
       <c r="M6">
-        <v>0.9766122710309049</v>
+        <v>1.048046774573987</v>
       </c>
       <c r="N6">
-        <v>1.006046016231487</v>
+        <v>1.035358026489566</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9816276839536786</v>
+        <v>1.013813133426498</v>
       </c>
       <c r="D7">
-        <v>1.003352421780511</v>
+        <v>1.028370456081129</v>
       </c>
       <c r="E7">
-        <v>0.9891161114193949</v>
+        <v>1.030565708220054</v>
       </c>
       <c r="F7">
-        <v>0.9616626276744108</v>
+        <v>1.037068415613172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037372730511178</v>
+        <v>1.051499771533051</v>
       </c>
       <c r="J7">
-        <v>1.00150705688277</v>
+        <v>1.032864014427405</v>
       </c>
       <c r="K7">
-        <v>1.013407565794043</v>
+        <v>1.038135229654354</v>
       </c>
       <c r="L7">
-        <v>0.9993446486249394</v>
+        <v>1.040305831355117</v>
       </c>
       <c r="M7">
-        <v>0.972243720226212</v>
+        <v>1.046736272792306</v>
       </c>
       <c r="N7">
-        <v>1.002929311778009</v>
+        <v>1.03433079979905</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9650381303387177</v>
+        <v>1.007065031008529</v>
       </c>
       <c r="D8">
-        <v>0.9904887273413858</v>
+        <v>1.023487601938621</v>
       </c>
       <c r="E8">
-        <v>0.9732939440732166</v>
+        <v>1.024247363946128</v>
       </c>
       <c r="F8">
-        <v>0.9408357622241352</v>
+        <v>1.03034666220078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031522457673524</v>
+        <v>1.049485223025985</v>
       </c>
       <c r="J8">
-        <v>0.9877115069738137</v>
+        <v>1.028470258032152</v>
       </c>
       <c r="K8">
-        <v>1.001799095092289</v>
+        <v>1.034358546768469</v>
       </c>
       <c r="L8">
-        <v>0.9848482440465345</v>
+        <v>1.035108608308913</v>
       </c>
       <c r="M8">
-        <v>0.9528816267649879</v>
+        <v>1.041130678791687</v>
       </c>
       <c r="N8">
-        <v>0.98911417060581</v>
+        <v>1.029930803765745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9313513626669757</v>
+        <v>0.9945482978613689</v>
       </c>
       <c r="D9">
-        <v>0.964426133763741</v>
+        <v>1.014438762826223</v>
       </c>
       <c r="E9">
-        <v>0.9412289668189692</v>
+        <v>1.01257141831882</v>
       </c>
       <c r="F9">
-        <v>0.8983349948211514</v>
+        <v>1.017921155635275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019466078749019</v>
+        <v>1.045635425924751</v>
       </c>
       <c r="J9">
-        <v>0.9595850839306714</v>
+        <v>1.020295049562848</v>
       </c>
       <c r="K9">
-        <v>0.9781240044146438</v>
+        <v>1.027301845572348</v>
       </c>
       <c r="L9">
-        <v>0.9553534149987035</v>
+        <v>1.025463773390072</v>
       </c>
       <c r="M9">
-        <v>0.91332522972316</v>
+        <v>1.030730015236288</v>
       </c>
       <c r="N9">
-        <v>0.9609478048158002</v>
+        <v>1.021743985562706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.904453163235445</v>
+        <v>0.985728706290993</v>
       </c>
       <c r="D10">
-        <v>0.9436961031894641</v>
+        <v>1.008073470009617</v>
       </c>
       <c r="E10">
-        <v>0.9156882084763095</v>
+        <v>1.004376927113676</v>
       </c>
       <c r="F10">
-        <v>0.8640825963016506</v>
+        <v>1.009197355405997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009725336596166</v>
+        <v>1.042849811075616</v>
       </c>
       <c r="J10">
-        <v>0.9370471508954283</v>
+        <v>1.014520214474079</v>
       </c>
       <c r="K10">
-        <v>0.9591622208056442</v>
+        <v>1.022298469583692</v>
       </c>
       <c r="L10">
-        <v>0.9317670791568919</v>
+        <v>1.018667601935258</v>
       </c>
       <c r="M10">
-        <v>0.8814321106084293</v>
+        <v>1.023402510940208</v>
       </c>
       <c r="N10">
-        <v>0.93837786533051</v>
+        <v>1.015960949545727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8912172602722969</v>
+        <v>0.9817835776416698</v>
       </c>
       <c r="D11">
-        <v>0.9335280788743747</v>
+        <v>1.005229985554108</v>
       </c>
       <c r="E11">
-        <v>0.9031412237720451</v>
+        <v>1.000719912277043</v>
       </c>
       <c r="F11">
-        <v>0.8470852425489193</v>
+        <v>1.005303235932317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.004908412733977</v>
+        <v>1.041587334238184</v>
       </c>
       <c r="J11">
-        <v>0.9259375981777977</v>
+        <v>1.011934320041568</v>
       </c>
       <c r="K11">
-        <v>0.9498227443352861</v>
+        <v>1.020053941416744</v>
       </c>
       <c r="L11">
-        <v>0.9201542361595058</v>
+        <v>1.015628264865423</v>
       </c>
       <c r="M11">
-        <v>0.8656097400078894</v>
+        <v>1.020125829217372</v>
       </c>
       <c r="N11">
-        <v>0.927252535773737</v>
+        <v>1.013371382846517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8859877249164498</v>
+        <v>0.9802979608935328</v>
       </c>
       <c r="D12">
-        <v>0.9295172585595211</v>
+        <v>1.004159900011618</v>
       </c>
       <c r="E12">
-        <v>0.8981877661148764</v>
+        <v>0.9993441358874681</v>
       </c>
       <c r="F12">
-        <v>0.8403385739032719</v>
+        <v>1.003838116649608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003002117813487</v>
+        <v>1.041109533881093</v>
       </c>
       <c r="J12">
-        <v>0.9215452556338684</v>
+        <v>1.010960202313751</v>
       </c>
       <c r="K12">
-        <v>0.9461319757447574</v>
+        <v>1.019207834512606</v>
       </c>
       <c r="L12">
-        <v>0.9155651915539077</v>
+        <v>1.014483912014752</v>
       </c>
       <c r="M12">
-        <v>0.859331192277744</v>
+        <v>1.018892151975041</v>
       </c>
       <c r="N12">
-        <v>0.9228539555995867</v>
+        <v>1.012395881759792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8871252668500463</v>
+        <v>0.9806175672071201</v>
       </c>
       <c r="D13">
-        <v>0.9303893735306424</v>
+        <v>1.004390078682641</v>
       </c>
       <c r="E13">
-        <v>0.8992650662720961</v>
+        <v>0.9996400499105171</v>
       </c>
       <c r="F13">
-        <v>0.8418077216383677</v>
+        <v>1.004153253988955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003416910529119</v>
+        <v>1.041212431481431</v>
       </c>
       <c r="J13">
-        <v>0.9225008219851474</v>
+        <v>1.011169782584328</v>
       </c>
       <c r="K13">
-        <v>0.9469348212912625</v>
+        <v>1.019389899256579</v>
       </c>
       <c r="L13">
-        <v>0.9165634435140049</v>
+        <v>1.014730092143381</v>
       </c>
       <c r="M13">
-        <v>0.8606983001963467</v>
+        <v>1.019157546371745</v>
       </c>
       <c r="N13">
-        <v>0.9238108789646898</v>
+        <v>1.012605759658392</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8907919401084524</v>
+        <v>0.9816611962717461</v>
       </c>
       <c r="D14">
-        <v>0.9332017339223869</v>
+        <v>1.005141820000712</v>
       </c>
       <c r="E14">
-        <v>0.9027382744343796</v>
+        <v>1.00060655153933</v>
       </c>
       <c r="F14">
-        <v>0.846537223757963</v>
+        <v>1.005182516532093</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.004753432099393</v>
+        <v>1.041548022313209</v>
       </c>
       <c r="J14">
-        <v>0.9255804262600912</v>
+        <v>1.011854081364052</v>
       </c>
       <c r="K14">
-        <v>0.9495225828100164</v>
+        <v>1.019984258739486</v>
       </c>
       <c r="L14">
-        <v>0.9197810216410286</v>
+        <v>1.015533992102339</v>
       </c>
       <c r="M14">
-        <v>0.8650997026406098</v>
+        <v>1.020024197050601</v>
       </c>
       <c r="N14">
-        <v>0.9268948566309393</v>
+        <v>1.013291030220875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8930067444046059</v>
+        <v>0.9823014915962883</v>
       </c>
       <c r="D15">
-        <v>0.9349014107471557</v>
+        <v>1.005603127892382</v>
       </c>
       <c r="E15">
-        <v>0.9048367451993005</v>
+        <v>1.00119970642485</v>
       </c>
       <c r="F15">
-        <v>0.8493896631856596</v>
+        <v>1.005814169366351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.005560354111007</v>
+        <v>1.041753604180203</v>
       </c>
       <c r="J15">
-        <v>0.9274402392790535</v>
+        <v>1.012273873720002</v>
       </c>
       <c r="K15">
-        <v>0.9510856137534935</v>
+        <v>1.020348800687726</v>
       </c>
       <c r="L15">
-        <v>0.9217244620712532</v>
+        <v>1.016027231449165</v>
       </c>
       <c r="M15">
-        <v>0.8677545258885159</v>
+        <v>1.020555942713175</v>
       </c>
       <c r="N15">
-        <v>0.9287573107977122</v>
+        <v>1.013711418730121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.905292537960752</v>
+        <v>0.985987767586282</v>
       </c>
       <c r="D16">
-        <v>0.9443416972609581</v>
+        <v>1.008260279108148</v>
       </c>
       <c r="E16">
-        <v>0.9164843657063479</v>
+        <v>1.004617251484254</v>
       </c>
       <c r="F16">
-        <v>0.865156996036655</v>
+        <v>1.009453242027283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010030369335138</v>
+        <v>1.04293237790119</v>
       </c>
       <c r="J16">
-        <v>0.9377512947308443</v>
+        <v>1.014689968548936</v>
       </c>
       <c r="K16">
-        <v>0.9597543663145369</v>
+        <v>1.022445731898401</v>
       </c>
       <c r="L16">
-        <v>0.9325034092799691</v>
+        <v>1.018867203231815</v>
       </c>
       <c r="M16">
-        <v>0.8824324008567626</v>
+        <v>1.023617704822436</v>
       </c>
       <c r="N16">
-        <v>0.9390830091309388</v>
+        <v>1.016130944690841</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9125312305643501</v>
+        <v>0.9882654296208701</v>
       </c>
       <c r="D17">
-        <v>0.9499128870277761</v>
+        <v>1.009903145977976</v>
       </c>
       <c r="E17">
-        <v>0.9233526656633475</v>
+        <v>1.006731151569916</v>
       </c>
       <c r="F17">
-        <v>0.8744065638385524</v>
+        <v>1.011703926168248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012658426829364</v>
+        <v>1.043656447233545</v>
       </c>
       <c r="J17">
-        <v>0.943821702140439</v>
+        <v>1.01618214051421</v>
       </c>
       <c r="K17">
-        <v>0.964860071789333</v>
+        <v>1.02373973698257</v>
       </c>
       <c r="L17">
-        <v>0.9388527618490051</v>
+        <v>1.020622179750955</v>
       </c>
       <c r="M17">
-        <v>0.8910444773424745</v>
+        <v>1.025509808665433</v>
       </c>
       <c r="N17">
-        <v>0.9451620372153408</v>
+        <v>1.017625235711461</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9166064742312858</v>
+        <v>0.9895818669015778</v>
       </c>
       <c r="D18">
-        <v>0.9530521469572231</v>
+        <v>1.010853037863709</v>
       </c>
       <c r="E18">
-        <v>0.9272211983415408</v>
+        <v>1.007953737472797</v>
       </c>
       <c r="F18">
-        <v>0.8796019177040059</v>
+        <v>1.013005538655349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.014135823456021</v>
+        <v>1.044073382730402</v>
       </c>
       <c r="J18">
-        <v>0.9472375160175049</v>
+        <v>1.017044319785988</v>
       </c>
       <c r="K18">
-        <v>0.9677336500044017</v>
+        <v>1.024487026976751</v>
       </c>
       <c r="L18">
-        <v>0.9424267197883508</v>
+        <v>1.021636577004313</v>
       </c>
       <c r="M18">
-        <v>0.8958820500091138</v>
+        <v>1.026603493239551</v>
       </c>
       <c r="N18">
-        <v>0.9485827019399116</v>
+        <v>1.018488639376698</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9179728337926638</v>
+        <v>0.9900287248407161</v>
       </c>
       <c r="D19">
-        <v>0.954105122146929</v>
+        <v>1.01117553024719</v>
       </c>
       <c r="E19">
-        <v>0.9285185420220559</v>
+        <v>1.008368871663126</v>
       </c>
       <c r="F19">
-        <v>0.8813420003993421</v>
+        <v>1.013447492838643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.014630794240161</v>
+        <v>1.044214642419444</v>
       </c>
       <c r="J19">
-        <v>0.948382490727196</v>
+        <v>1.017336935843547</v>
       </c>
       <c r="K19">
-        <v>0.9686969557776146</v>
+        <v>1.024740583912403</v>
       </c>
       <c r="L19">
-        <v>0.9436248990603593</v>
+        <v>1.021980917323078</v>
       </c>
       <c r="M19">
-        <v>0.8975023269480307</v>
+        <v>1.026974752374725</v>
       </c>
       <c r="N19">
-        <v>0.9497293026450208</v>
+        <v>1.018781670982623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9117702178125173</v>
+        <v>0.9880223167675241</v>
       </c>
       <c r="D20">
-        <v>0.9493268791675442</v>
+        <v>1.009727752511488</v>
       </c>
       <c r="E20">
-        <v>0.9226303985239563</v>
+        <v>1.006505434879403</v>
       </c>
       <c r="F20">
-        <v>0.8734354510627587</v>
+        <v>1.011463612746639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012382358522347</v>
+        <v>1.04357932300043</v>
       </c>
       <c r="J20">
-        <v>0.9431836918227282</v>
+        <v>1.016022896032061</v>
       </c>
       <c r="K20">
-        <v>0.9643233866201454</v>
+        <v>1.023601680940464</v>
       </c>
       <c r="L20">
-        <v>0.938185308609095</v>
+        <v>1.020434850518459</v>
       </c>
       <c r="M20">
-        <v>0.8901402587284063</v>
+        <v>1.025307839530193</v>
       </c>
       <c r="N20">
-        <v>0.9445231208497979</v>
+        <v>1.017465765083882</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.889721628773123</v>
+        <v>0.9813544423890638</v>
       </c>
       <c r="D21">
-        <v>0.9323806035954304</v>
+        <v>1.004920840886015</v>
       </c>
       <c r="E21">
-        <v>0.9017243235934497</v>
+        <v>1.000322430141786</v>
       </c>
       <c r="F21">
-        <v>0.845157610168459</v>
+        <v>1.004879949419062</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.004363378126727</v>
+        <v>1.041449447177437</v>
       </c>
       <c r="J21">
-        <v>0.9246815620355872</v>
+        <v>1.011652954475146</v>
       </c>
       <c r="K21">
-        <v>0.9487672221809532</v>
+        <v>1.019809582315632</v>
       </c>
       <c r="L21">
-        <v>0.9188418216678872</v>
+        <v>1.015297696559254</v>
       </c>
       <c r="M21">
-        <v>0.8638157380650594</v>
+        <v>1.019769455718815</v>
       </c>
       <c r="N21">
-        <v>0.9259947159161354</v>
+        <v>1.013089617708717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.873976142348612</v>
+        <v>0.9770443894184013</v>
       </c>
       <c r="D22">
-        <v>0.9203199148844478</v>
+        <v>1.00181775497232</v>
       </c>
       <c r="E22">
-        <v>0.8868187384748983</v>
+        <v>0.9963336764048986</v>
       </c>
       <c r="F22">
-        <v>0.8247676576956963</v>
+        <v>1.000631881513087</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9986184069722734</v>
+        <v>1.040058821565977</v>
       </c>
       <c r="J22">
-        <v>0.9114509472451707</v>
+        <v>1.008826270370771</v>
       </c>
       <c r="K22">
-        <v>0.9376543063964592</v>
+        <v>1.017353287585206</v>
       </c>
       <c r="L22">
-        <v>0.9050235423527089</v>
+        <v>1.011978115454943</v>
       </c>
       <c r="M22">
-        <v>0.8448458804597021</v>
+        <v>1.016190831091697</v>
       </c>
       <c r="N22">
-        <v>0.9127453121351438</v>
+        <v>1.010258919388688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8825380445846648</v>
+        <v>0.9793408369615455</v>
       </c>
       <c r="D23">
-        <v>0.9268736422732003</v>
+        <v>1.003470694313924</v>
       </c>
       <c r="E23">
-        <v>0.8949214171240487</v>
+        <v>0.9984581659031391</v>
       </c>
       <c r="F23">
-        <v>0.8358776689453077</v>
+        <v>1.002894569938031</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.001743816030424</v>
+        <v>1.040801042915951</v>
       </c>
       <c r="J23">
-        <v>0.9186469918177164</v>
+        <v>1.010332527046323</v>
       </c>
       <c r="K23">
-        <v>0.9436972421637625</v>
+        <v>1.018662482824741</v>
       </c>
       <c r="L23">
-        <v>0.9125378225261055</v>
+        <v>1.013746707535443</v>
       </c>
       <c r="M23">
-        <v>0.8551805000624468</v>
+        <v>1.01809741454386</v>
       </c>
       <c r="N23">
-        <v>0.9199515759163802</v>
+        <v>1.01176731512149</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9121145357717132</v>
+        <v>0.988132206252867</v>
       </c>
       <c r="D24">
-        <v>0.9495920080504684</v>
+        <v>1.009807031061293</v>
       </c>
       <c r="E24">
-        <v>0.9229571805093977</v>
+        <v>1.006607458647454</v>
       </c>
       <c r="F24">
-        <v>0.8738748650982386</v>
+        <v>1.011572234483116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012507271575935</v>
+        <v>1.043614188785273</v>
       </c>
       <c r="J24">
-        <v>0.9434723630493158</v>
+        <v>1.016094876978475</v>
       </c>
       <c r="K24">
-        <v>0.9645662108899138</v>
+        <v>1.023664085593781</v>
       </c>
       <c r="L24">
-        <v>0.9384872977550522</v>
+        <v>1.02051952505673</v>
       </c>
       <c r="M24">
-        <v>0.890549403316806</v>
+        <v>1.025399131358208</v>
       </c>
       <c r="N24">
-        <v>0.9448122020226384</v>
+        <v>1.017537848251496</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9407094061036839</v>
+        <v>0.9978636653611788</v>
       </c>
       <c r="D25">
-        <v>0.9716564445080207</v>
+        <v>1.016834118505806</v>
       </c>
       <c r="E25">
-        <v>0.9501278644319581</v>
+        <v>1.015658704385618</v>
       </c>
       <c r="F25">
-        <v>0.9101779793937218</v>
+        <v>1.021207158943835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022834439652626</v>
+        <v>1.046667944225697</v>
       </c>
       <c r="J25">
-        <v>0.9674112618482436</v>
+        <v>1.022463140204682</v>
       </c>
       <c r="K25">
-        <v>0.9847112931164965</v>
+        <v>1.029176608533392</v>
       </c>
       <c r="L25">
-        <v>0.9635530841242991</v>
+        <v>1.028018706723772</v>
       </c>
       <c r="M25">
-        <v>0.9243514980024763</v>
+        <v>1.033484945290152</v>
       </c>
       <c r="N25">
-        <v>0.9687850968036906</v>
+        <v>1.023915155141934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005287186275768</v>
+        <v>1.038825164163572</v>
       </c>
       <c r="D2">
-        <v>1.022201536917873</v>
+        <v>1.039652455884032</v>
       </c>
       <c r="E2">
-        <v>1.022585538181629</v>
+        <v>1.052365701346886</v>
       </c>
       <c r="F2">
-        <v>1.028578478004094</v>
+        <v>1.059753805040696</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048946837316028</v>
+        <v>1.037340896980113</v>
       </c>
       <c r="J2">
-        <v>1.027310900378673</v>
+        <v>1.043920502206693</v>
       </c>
       <c r="K2">
-        <v>1.033359996995594</v>
+        <v>1.042437034650083</v>
       </c>
       <c r="L2">
-        <v>1.033738938434686</v>
+        <v>1.055114634199702</v>
       </c>
       <c r="M2">
-        <v>1.039653524706778</v>
+        <v>1.062482448437402</v>
       </c>
       <c r="N2">
-        <v>1.028769799691424</v>
+        <v>1.045402989059181</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010499238851308</v>
+        <v>1.039910863128316</v>
       </c>
       <c r="D3">
-        <v>1.02597234199883</v>
+        <v>1.040440374574999</v>
       </c>
       <c r="E3">
-        <v>1.027460740898321</v>
+        <v>1.053437375232783</v>
       </c>
       <c r="F3">
-        <v>1.033765395863634</v>
+        <v>1.060895687153399</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050516399846056</v>
+        <v>1.037574510516013</v>
       </c>
       <c r="J3">
-        <v>1.030707719352527</v>
+        <v>1.044650471684014</v>
       </c>
       <c r="K3">
-        <v>1.036283346465045</v>
+        <v>1.043035274737793</v>
       </c>
       <c r="L3">
-        <v>1.037753911229358</v>
+        <v>1.05599847495508</v>
       </c>
       <c r="M3">
-        <v>1.043983728441761</v>
+        <v>1.06343779371873</v>
       </c>
       <c r="N3">
-        <v>1.032171442537836</v>
+        <v>1.04613399517689</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013794788764575</v>
+        <v>1.04061338324055</v>
       </c>
       <c r="D4">
-        <v>1.02835718015572</v>
+        <v>1.040949850088233</v>
       </c>
       <c r="E4">
-        <v>1.03054850868556</v>
+        <v>1.054131151800219</v>
       </c>
       <c r="F4">
-        <v>1.037050120007763</v>
+        <v>1.061634891125991</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051494360999609</v>
+        <v>1.037723872525405</v>
       </c>
       <c r="J4">
-        <v>1.032852085915523</v>
+        <v>1.04512225153069</v>
       </c>
       <c r="K4">
-        <v>1.038124993946118</v>
+        <v>1.043421361235424</v>
       </c>
       <c r="L4">
-        <v>1.04029170699019</v>
+        <v>1.056570113134937</v>
       </c>
       <c r="M4">
-        <v>1.046721037409646</v>
+        <v>1.064055710786332</v>
       </c>
       <c r="N4">
-        <v>1.034318854347313</v>
+        <v>1.046606445005062</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015162552735426</v>
+        <v>1.040908723237402</v>
       </c>
       <c r="D5">
-        <v>1.029347036203737</v>
+        <v>1.041163946807452</v>
       </c>
       <c r="E5">
-        <v>1.031831245377954</v>
+        <v>1.054422894971772</v>
       </c>
       <c r="F5">
-        <v>1.038414570522169</v>
+        <v>1.061945731605456</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051896721792992</v>
+        <v>1.037786232780766</v>
       </c>
       <c r="J5">
-        <v>1.033741209031634</v>
+        <v>1.045320453885511</v>
       </c>
       <c r="K5">
-        <v>1.038887660378025</v>
+        <v>1.043583428808287</v>
       </c>
       <c r="L5">
-        <v>1.041344732716217</v>
+        <v>1.056810366197605</v>
       </c>
       <c r="M5">
-        <v>1.047856912901804</v>
+        <v>1.064315422089358</v>
       </c>
       <c r="N5">
-        <v>1.035209240120233</v>
+        <v>1.04680492882996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015391190190498</v>
+        <v>1.040958312167981</v>
       </c>
       <c r="D6">
-        <v>1.029512503990923</v>
+        <v>1.041199889485813</v>
       </c>
       <c r="E6">
-        <v>1.032045739523374</v>
+        <v>1.054471884597342</v>
       </c>
       <c r="F6">
-        <v>1.038642722432181</v>
+        <v>1.061997927734333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051963772126538</v>
+        <v>1.037796678029844</v>
       </c>
       <c r="J6">
-        <v>1.033889784406893</v>
+        <v>1.045353725080999</v>
       </c>
       <c r="K6">
-        <v>1.039015048537834</v>
+        <v>1.04361062639915</v>
       </c>
       <c r="L6">
-        <v>1.041520742492552</v>
+        <v>1.056850702013534</v>
       </c>
       <c r="M6">
-        <v>1.048046774573987</v>
+        <v>1.064359025182842</v>
       </c>
       <c r="N6">
-        <v>1.035358026489566</v>
+        <v>1.046838247274363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013813133426498</v>
+        <v>1.040617329585318</v>
       </c>
       <c r="D7">
-        <v>1.028370456081129</v>
+        <v>1.040952711200684</v>
       </c>
       <c r="E7">
-        <v>1.030565708220054</v>
+        <v>1.054135049774312</v>
       </c>
       <c r="F7">
-        <v>1.037068415613172</v>
+        <v>1.061639044280579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051499771533051</v>
+        <v>1.037724707482122</v>
       </c>
       <c r="J7">
-        <v>1.032864014427405</v>
+        <v>1.045124900446389</v>
       </c>
       <c r="K7">
-        <v>1.038135229654354</v>
+        <v>1.043423527746145</v>
       </c>
       <c r="L7">
-        <v>1.040305831355117</v>
+        <v>1.056573323658107</v>
       </c>
       <c r="M7">
-        <v>1.046736272792306</v>
+        <v>1.064059181301213</v>
       </c>
       <c r="N7">
-        <v>1.03433079979905</v>
+        <v>1.046609097682524</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007065031008529</v>
+        <v>1.039192081438935</v>
       </c>
       <c r="D8">
-        <v>1.023487601938621</v>
+        <v>1.039918811074172</v>
       </c>
       <c r="E8">
-        <v>1.024247363946128</v>
+        <v>1.052727809859556</v>
       </c>
       <c r="F8">
-        <v>1.03034666220078</v>
+        <v>1.060139641234231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049485223025985</v>
+        <v>1.03742022065588</v>
       </c>
       <c r="J8">
-        <v>1.028470258032152</v>
+        <v>1.044167314591</v>
       </c>
       <c r="K8">
-        <v>1.034358546768469</v>
+        <v>1.042639422678679</v>
       </c>
       <c r="L8">
-        <v>1.035108608308913</v>
+        <v>1.055413387392443</v>
       </c>
       <c r="M8">
-        <v>1.041130678791687</v>
+        <v>1.062805364732367</v>
       </c>
       <c r="N8">
-        <v>1.029930803765745</v>
+        <v>1.045650151945384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9945482978613689</v>
+        <v>1.036680592517538</v>
       </c>
       <c r="D9">
-        <v>1.014438762826223</v>
+        <v>1.038094205336963</v>
       </c>
       <c r="E9">
-        <v>1.01257141831882</v>
+        <v>1.050250612578387</v>
       </c>
       <c r="F9">
-        <v>1.017921155635275</v>
+        <v>1.057500020470951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045635425924751</v>
+        <v>1.03686988799859</v>
       </c>
       <c r="J9">
-        <v>1.020295049562848</v>
+        <v>1.042475643055101</v>
       </c>
       <c r="K9">
-        <v>1.027301845572348</v>
+        <v>1.041249966647628</v>
       </c>
       <c r="L9">
-        <v>1.025463773390072</v>
+        <v>1.053367393215216</v>
       </c>
       <c r="M9">
-        <v>1.030730015236288</v>
+        <v>1.06059402144165</v>
       </c>
       <c r="N9">
-        <v>1.021743985562706</v>
+        <v>1.043956078041866</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.985728706290993</v>
+        <v>1.035006219901886</v>
       </c>
       <c r="D10">
-        <v>1.008073470009617</v>
+        <v>1.036875982406863</v>
       </c>
       <c r="E10">
-        <v>1.004376927113676</v>
+        <v>1.048600847700992</v>
       </c>
       <c r="F10">
-        <v>1.009197355405997</v>
+        <v>1.055741952748326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042849811075616</v>
+        <v>1.036493741147862</v>
       </c>
       <c r="J10">
-        <v>1.014520214474079</v>
+        <v>1.041344979654882</v>
       </c>
       <c r="K10">
-        <v>1.022298469583692</v>
+        <v>1.040318454116175</v>
       </c>
       <c r="L10">
-        <v>1.018667601935258</v>
+        <v>1.052002020910893</v>
       </c>
       <c r="M10">
-        <v>1.023402510940208</v>
+        <v>1.059118467450013</v>
       </c>
       <c r="N10">
-        <v>1.015960949545727</v>
+        <v>1.042823808969931</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9817835776416698</v>
+        <v>1.034281178587605</v>
       </c>
       <c r="D11">
-        <v>1.005229985554108</v>
+        <v>1.03634805122602</v>
       </c>
       <c r="E11">
-        <v>1.000719912277043</v>
+        <v>1.047886881815552</v>
       </c>
       <c r="F11">
-        <v>1.005303235932317</v>
+        <v>1.054981084099288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041587334238184</v>
+        <v>1.036328671429852</v>
       </c>
       <c r="J11">
-        <v>1.011934320041568</v>
+        <v>1.040854704755316</v>
       </c>
       <c r="K11">
-        <v>1.020053941416744</v>
+        <v>1.039913864976925</v>
       </c>
       <c r="L11">
-        <v>1.015628264865423</v>
+        <v>1.051410470953335</v>
       </c>
       <c r="M11">
-        <v>1.020125829217372</v>
+        <v>1.058479219051003</v>
       </c>
       <c r="N11">
-        <v>1.013371382846517</v>
+        <v>1.042332837823772</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9802979608935328</v>
+        <v>1.03401186107775</v>
       </c>
       <c r="D12">
-        <v>1.004159900011618</v>
+        <v>1.03615188932918</v>
       </c>
       <c r="E12">
-        <v>0.9993441358874681</v>
+        <v>1.047621741819927</v>
       </c>
       <c r="F12">
-        <v>1.003838116649608</v>
+        <v>1.054698521149793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041109533881093</v>
+        <v>1.036267027400159</v>
       </c>
       <c r="J12">
-        <v>1.010960202313751</v>
+        <v>1.040672490902056</v>
       </c>
       <c r="K12">
-        <v>1.019207834512606</v>
+        <v>1.039763396567115</v>
       </c>
       <c r="L12">
-        <v>1.014483912014752</v>
+        <v>1.051190692362053</v>
       </c>
       <c r="M12">
-        <v>1.018892151975041</v>
+        <v>1.058241724716691</v>
       </c>
       <c r="N12">
-        <v>1.012395881759792</v>
+        <v>1.04215036520594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806175672071201</v>
+        <v>1.034069630832295</v>
       </c>
       <c r="D13">
-        <v>1.004390078682641</v>
+        <v>1.036193969648155</v>
       </c>
       <c r="E13">
-        <v>0.9996400499105171</v>
+        <v>1.04767861259731</v>
       </c>
       <c r="F13">
-        <v>1.004153253988955</v>
+        <v>1.054759129265528</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041212431481431</v>
+        <v>1.036280265176001</v>
       </c>
       <c r="J13">
-        <v>1.011169782584328</v>
+        <v>1.040711581098779</v>
       </c>
       <c r="K13">
-        <v>1.019389899256579</v>
+        <v>1.039795680967989</v>
       </c>
       <c r="L13">
-        <v>1.014730092143381</v>
+        <v>1.051237837910592</v>
       </c>
       <c r="M13">
-        <v>1.019157546371745</v>
+        <v>1.058292670281694</v>
       </c>
       <c r="N13">
-        <v>1.012605759658392</v>
+        <v>1.042189510915226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9816611962717461</v>
+        <v>1.034258916822697</v>
       </c>
       <c r="D14">
-        <v>1.005141820000712</v>
+        <v>1.036331837741924</v>
       </c>
       <c r="E14">
-        <v>1.00060655153933</v>
+        <v>1.047864964064891</v>
       </c>
       <c r="F14">
-        <v>1.005182516532093</v>
+        <v>1.054957726186688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041548022313209</v>
+        <v>1.036323582642197</v>
       </c>
       <c r="J14">
-        <v>1.011854081364052</v>
+        <v>1.040839645022785</v>
       </c>
       <c r="K14">
-        <v>1.019984258739486</v>
+        <v>1.039901431005277</v>
       </c>
       <c r="L14">
-        <v>1.015533992102339</v>
+        <v>1.051392305020398</v>
       </c>
       <c r="M14">
-        <v>1.020024197050601</v>
+        <v>1.058459588697322</v>
       </c>
       <c r="N14">
-        <v>1.013291030220875</v>
+        <v>1.042317756704694</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9823014915962883</v>
+        <v>1.034375541496429</v>
       </c>
       <c r="D15">
-        <v>1.005603127892382</v>
+        <v>1.036416774251913</v>
       </c>
       <c r="E15">
-        <v>1.00119970642485</v>
+        <v>1.047979789125383</v>
       </c>
       <c r="F15">
-        <v>1.005814169366351</v>
+        <v>1.055080095914851</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041753604180203</v>
+        <v>1.036350228265321</v>
       </c>
       <c r="J15">
-        <v>1.012273873720002</v>
+        <v>1.04091853565476</v>
       </c>
       <c r="K15">
-        <v>1.020348800687726</v>
+        <v>1.039966562448477</v>
       </c>
       <c r="L15">
-        <v>1.016027231449165</v>
+        <v>1.051487470590795</v>
       </c>
       <c r="M15">
-        <v>1.020555942713175</v>
+        <v>1.058562426135876</v>
       </c>
       <c r="N15">
-        <v>1.013711418730121</v>
+        <v>1.042396759370414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.985987767586282</v>
+        <v>1.03505433786729</v>
       </c>
       <c r="D16">
-        <v>1.008260279108148</v>
+        <v>1.036911010367046</v>
       </c>
       <c r="E16">
-        <v>1.004617251484254</v>
+        <v>1.048648239519812</v>
       </c>
       <c r="F16">
-        <v>1.009453242027283</v>
+        <v>1.055792457191417</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04293237790119</v>
+        <v>1.036504650028908</v>
       </c>
       <c r="J16">
-        <v>1.014689968548936</v>
+        <v>1.041377503024011</v>
       </c>
       <c r="K16">
-        <v>1.022445731898401</v>
+        <v>1.040345279281738</v>
       </c>
       <c r="L16">
-        <v>1.018867203231815</v>
+        <v>1.052041273054608</v>
       </c>
       <c r="M16">
-        <v>1.023617704822436</v>
+        <v>1.059160885407559</v>
       </c>
       <c r="N16">
-        <v>1.016130944690841</v>
+        <v>1.042856378525974</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882654296208701</v>
+        <v>1.035480121098227</v>
       </c>
       <c r="D17">
-        <v>1.009903145977976</v>
+        <v>1.037220915977043</v>
       </c>
       <c r="E17">
-        <v>1.006731151569916</v>
+        <v>1.04906764581584</v>
       </c>
       <c r="F17">
-        <v>1.011703926168248</v>
+        <v>1.056239405673055</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043656447233545</v>
+        <v>1.036600926944817</v>
       </c>
       <c r="J17">
-        <v>1.01618214051421</v>
+        <v>1.041665216183119</v>
       </c>
       <c r="K17">
-        <v>1.02373973698257</v>
+        <v>1.040582506893504</v>
       </c>
       <c r="L17">
-        <v>1.020622179750955</v>
+        <v>1.052388568873902</v>
       </c>
       <c r="M17">
-        <v>1.025509808665433</v>
+        <v>1.059536196150685</v>
       </c>
       <c r="N17">
-        <v>1.017625235711461</v>
+        <v>1.043144500270769</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9895818669015778</v>
+        <v>1.035728470711877</v>
       </c>
       <c r="D18">
-        <v>1.010853037863709</v>
+        <v>1.037401636919231</v>
       </c>
       <c r="E18">
-        <v>1.007953737472797</v>
+        <v>1.049312316373616</v>
       </c>
       <c r="F18">
-        <v>1.013005538655349</v>
+        <v>1.056500140463716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044073382730402</v>
+        <v>1.036656871787165</v>
       </c>
       <c r="J18">
-        <v>1.017044319785988</v>
+        <v>1.041832967824022</v>
       </c>
       <c r="K18">
-        <v>1.024487026976751</v>
+        <v>1.040720758289647</v>
       </c>
       <c r="L18">
-        <v>1.021636577004313</v>
+        <v>1.052591108372816</v>
       </c>
       <c r="M18">
-        <v>1.026603493239551</v>
+        <v>1.059755077342124</v>
       </c>
       <c r="N18">
-        <v>1.018488639376698</v>
+        <v>1.043312490138243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9900287248407161</v>
+        <v>1.035813151106631</v>
       </c>
       <c r="D19">
-        <v>1.01117553024719</v>
+        <v>1.037463251000007</v>
       </c>
       <c r="E19">
-        <v>1.008368871663126</v>
+        <v>1.049395749160389</v>
       </c>
       <c r="F19">
-        <v>1.013447492838643</v>
+        <v>1.056589050631416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044214642419444</v>
+        <v>1.036675911595945</v>
       </c>
       <c r="J19">
-        <v>1.017336935843547</v>
+        <v>1.041890155512895</v>
       </c>
       <c r="K19">
-        <v>1.024740583912403</v>
+        <v>1.040767878180575</v>
       </c>
       <c r="L19">
-        <v>1.021980917323078</v>
+        <v>1.052660163642463</v>
       </c>
       <c r="M19">
-        <v>1.026974752374725</v>
+        <v>1.059829704888601</v>
       </c>
       <c r="N19">
-        <v>1.018781670982623</v>
+        <v>1.043369759040194</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9880223167675241</v>
+        <v>1.035434438855843</v>
       </c>
       <c r="D20">
-        <v>1.009727752511488</v>
+        <v>1.03718767035523</v>
       </c>
       <c r="E20">
-        <v>1.006505434879403</v>
+        <v>1.049022643565362</v>
       </c>
       <c r="F20">
-        <v>1.011463612746639</v>
+        <v>1.056191448475772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04357932300043</v>
+        <v>1.036590619255246</v>
       </c>
       <c r="J20">
-        <v>1.016022896032061</v>
+        <v>1.041634354171971</v>
       </c>
       <c r="K20">
-        <v>1.023601680940464</v>
+        <v>1.040557066971545</v>
       </c>
       <c r="L20">
-        <v>1.020434850518459</v>
+        <v>1.052351310659867</v>
       </c>
       <c r="M20">
-        <v>1.025307839530193</v>
+        <v>1.059495932091115</v>
       </c>
       <c r="N20">
-        <v>1.017465765083882</v>
+        <v>1.043113594432026</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9813544423890638</v>
+        <v>1.034203176957897</v>
       </c>
       <c r="D21">
-        <v>1.004920840886015</v>
+        <v>1.036291240810066</v>
       </c>
       <c r="E21">
-        <v>1.000322430141786</v>
+        <v>1.047810086584142</v>
       </c>
       <c r="F21">
-        <v>1.004879949419062</v>
+        <v>1.054899242758742</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041449447177437</v>
+        <v>1.036310835831125</v>
       </c>
       <c r="J21">
-        <v>1.011652954475146</v>
+        <v>1.040801936259834</v>
       </c>
       <c r="K21">
-        <v>1.019809582315632</v>
+        <v>1.039870295389151</v>
       </c>
       <c r="L21">
-        <v>1.015297696559254</v>
+        <v>1.051346819705798</v>
       </c>
       <c r="M21">
-        <v>1.019769455718815</v>
+        <v>1.058410436740346</v>
       </c>
       <c r="N21">
-        <v>1.013089617708717</v>
+        <v>1.042279994390974</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770443894184013</v>
+        <v>1.033429005064812</v>
       </c>
       <c r="D22">
-        <v>1.00181775497232</v>
+        <v>1.035727245468119</v>
       </c>
       <c r="E22">
-        <v>0.9963336764048986</v>
+        <v>1.047048043464904</v>
       </c>
       <c r="F22">
-        <v>1.000631881513087</v>
+        <v>1.054087114426811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040058821565977</v>
+        <v>1.036133016883278</v>
       </c>
       <c r="J22">
-        <v>1.008826270370771</v>
+        <v>1.040277960677806</v>
       </c>
       <c r="K22">
-        <v>1.017353287585206</v>
+        <v>1.039437418766028</v>
       </c>
       <c r="L22">
-        <v>1.011978115454943</v>
+        <v>1.050714963474243</v>
       </c>
       <c r="M22">
-        <v>1.016190831091697</v>
+        <v>1.057727658950062</v>
       </c>
       <c r="N22">
-        <v>1.010258919388688</v>
+        <v>1.041755274703519</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9793408369615455</v>
+        <v>1.033839411231158</v>
       </c>
       <c r="D23">
-        <v>1.003470694313924</v>
+        <v>1.036026265488982</v>
       </c>
       <c r="E23">
-        <v>0.9984581659031391</v>
+        <v>1.04745198486999</v>
       </c>
       <c r="F23">
-        <v>1.002894569938031</v>
+        <v>1.054517607650708</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040801042915951</v>
+        <v>1.036227462901364</v>
       </c>
       <c r="J23">
-        <v>1.010332527046323</v>
+        <v>1.040555787132644</v>
       </c>
       <c r="K23">
-        <v>1.018662482824741</v>
+        <v>1.039666996849299</v>
       </c>
       <c r="L23">
-        <v>1.013746707535443</v>
+        <v>1.051049950284913</v>
       </c>
       <c r="M23">
-        <v>1.01809741454386</v>
+        <v>1.058089639399424</v>
       </c>
       <c r="N23">
-        <v>1.01176731512149</v>
+        <v>1.04203349570379</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.988132206252867</v>
+        <v>1.035455080702347</v>
       </c>
       <c r="D24">
-        <v>1.009807031061293</v>
+        <v>1.037202692749612</v>
       </c>
       <c r="E24">
-        <v>1.006607458647454</v>
+        <v>1.049042978027741</v>
       </c>
       <c r="F24">
-        <v>1.011572234483116</v>
+        <v>1.056213118153414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043614188785273</v>
+        <v>1.036595277510997</v>
       </c>
       <c r="J24">
-        <v>1.016094876978475</v>
+        <v>1.041648299591909</v>
       </c>
       <c r="K24">
-        <v>1.023664085593781</v>
+        <v>1.040568562546206</v>
       </c>
       <c r="L24">
-        <v>1.02051952505673</v>
+        <v>1.052368146142557</v>
       </c>
       <c r="M24">
-        <v>1.025399131358208</v>
+        <v>1.059514125782714</v>
       </c>
       <c r="N24">
-        <v>1.017537848251496</v>
+        <v>1.043127559656059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9978636653611788</v>
+        <v>1.037329878366224</v>
       </c>
       <c r="D25">
-        <v>1.016834118505806</v>
+        <v>1.038566232029918</v>
       </c>
       <c r="E25">
-        <v>1.015658704385618</v>
+        <v>1.050890727272617</v>
       </c>
       <c r="F25">
-        <v>1.021207158943835</v>
+        <v>1.058182128641149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046667944225697</v>
+        <v>1.037013794891748</v>
       </c>
       <c r="J25">
-        <v>1.022463140204682</v>
+        <v>1.042913488514703</v>
       </c>
       <c r="K25">
-        <v>1.029176608533392</v>
+        <v>1.041610093134266</v>
       </c>
       <c r="L25">
-        <v>1.028018706723772</v>
+        <v>1.053896573876167</v>
       </c>
       <c r="M25">
-        <v>1.033484945290152</v>
+        <v>1.061165939613411</v>
       </c>
       <c r="N25">
-        <v>1.023915155141934</v>
+        <v>1.044394545292243</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038825164163572</v>
+        <v>1.005287186275768</v>
       </c>
       <c r="D2">
-        <v>1.039652455884032</v>
+        <v>1.022201536917873</v>
       </c>
       <c r="E2">
-        <v>1.052365701346886</v>
+        <v>1.022585538181629</v>
       </c>
       <c r="F2">
-        <v>1.059753805040696</v>
+        <v>1.028578478004094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037340896980113</v>
+        <v>1.048946837316028</v>
       </c>
       <c r="J2">
-        <v>1.043920502206693</v>
+        <v>1.027310900378673</v>
       </c>
       <c r="K2">
-        <v>1.042437034650083</v>
+        <v>1.033359996995595</v>
       </c>
       <c r="L2">
-        <v>1.055114634199702</v>
+        <v>1.033738938434686</v>
       </c>
       <c r="M2">
-        <v>1.062482448437402</v>
+        <v>1.039653524706778</v>
       </c>
       <c r="N2">
-        <v>1.045402989059181</v>
+        <v>1.028769799691424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039910863128316</v>
+        <v>1.010499238851309</v>
       </c>
       <c r="D3">
-        <v>1.040440374574999</v>
+        <v>1.02597234199883</v>
       </c>
       <c r="E3">
-        <v>1.053437375232783</v>
+        <v>1.027460740898322</v>
       </c>
       <c r="F3">
-        <v>1.060895687153399</v>
+        <v>1.033765395863635</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037574510516013</v>
+        <v>1.050516399846056</v>
       </c>
       <c r="J3">
-        <v>1.044650471684014</v>
+        <v>1.030707719352528</v>
       </c>
       <c r="K3">
-        <v>1.043035274737793</v>
+        <v>1.036283346465045</v>
       </c>
       <c r="L3">
-        <v>1.05599847495508</v>
+        <v>1.037753911229359</v>
       </c>
       <c r="M3">
-        <v>1.06343779371873</v>
+        <v>1.043983728441762</v>
       </c>
       <c r="N3">
-        <v>1.04613399517689</v>
+        <v>1.032171442537837</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04061338324055</v>
+        <v>1.013794788764576</v>
       </c>
       <c r="D4">
-        <v>1.040949850088233</v>
+        <v>1.02835718015572</v>
       </c>
       <c r="E4">
-        <v>1.054131151800219</v>
+        <v>1.030548508685561</v>
       </c>
       <c r="F4">
-        <v>1.061634891125991</v>
+        <v>1.037050120007764</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037723872525405</v>
+        <v>1.051494360999609</v>
       </c>
       <c r="J4">
-        <v>1.04512225153069</v>
+        <v>1.032852085915523</v>
       </c>
       <c r="K4">
-        <v>1.043421361235424</v>
+        <v>1.038124993946119</v>
       </c>
       <c r="L4">
-        <v>1.056570113134937</v>
+        <v>1.04029170699019</v>
       </c>
       <c r="M4">
-        <v>1.064055710786332</v>
+        <v>1.046721037409646</v>
       </c>
       <c r="N4">
-        <v>1.046606445005062</v>
+        <v>1.034318854347313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040908723237402</v>
+        <v>1.015162552735427</v>
       </c>
       <c r="D5">
-        <v>1.041163946807452</v>
+        <v>1.029347036203738</v>
       </c>
       <c r="E5">
-        <v>1.054422894971772</v>
+        <v>1.031831245377955</v>
       </c>
       <c r="F5">
-        <v>1.061945731605456</v>
+        <v>1.038414570522169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037786232780766</v>
+        <v>1.051896721792993</v>
       </c>
       <c r="J5">
-        <v>1.045320453885511</v>
+        <v>1.033741209031635</v>
       </c>
       <c r="K5">
-        <v>1.043583428808287</v>
+        <v>1.038887660378025</v>
       </c>
       <c r="L5">
-        <v>1.056810366197605</v>
+        <v>1.041344732716217</v>
       </c>
       <c r="M5">
-        <v>1.064315422089358</v>
+        <v>1.047856912901804</v>
       </c>
       <c r="N5">
-        <v>1.04680492882996</v>
+        <v>1.035209240120233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040958312167981</v>
+        <v>1.015391190190497</v>
       </c>
       <c r="D6">
-        <v>1.041199889485813</v>
+        <v>1.029512503990923</v>
       </c>
       <c r="E6">
-        <v>1.054471884597342</v>
+        <v>1.032045739523373</v>
       </c>
       <c r="F6">
-        <v>1.061997927734333</v>
+        <v>1.03864272243218</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037796678029844</v>
+        <v>1.051963772126537</v>
       </c>
       <c r="J6">
-        <v>1.045353725080999</v>
+        <v>1.033889784406892</v>
       </c>
       <c r="K6">
-        <v>1.04361062639915</v>
+        <v>1.039015048537834</v>
       </c>
       <c r="L6">
-        <v>1.056850702013534</v>
+        <v>1.041520742492551</v>
       </c>
       <c r="M6">
-        <v>1.064359025182842</v>
+        <v>1.048046774573986</v>
       </c>
       <c r="N6">
-        <v>1.046838247274363</v>
+        <v>1.035358026489565</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040617329585318</v>
+        <v>1.013813133426499</v>
       </c>
       <c r="D7">
-        <v>1.040952711200684</v>
+        <v>1.02837045608113</v>
       </c>
       <c r="E7">
-        <v>1.054135049774312</v>
+        <v>1.030565708220055</v>
       </c>
       <c r="F7">
-        <v>1.061639044280579</v>
+        <v>1.037068415613173</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037724707482122</v>
+        <v>1.051499771533051</v>
       </c>
       <c r="J7">
-        <v>1.045124900446389</v>
+        <v>1.032864014427406</v>
       </c>
       <c r="K7">
-        <v>1.043423527746145</v>
+        <v>1.038135229654355</v>
       </c>
       <c r="L7">
-        <v>1.056573323658107</v>
+        <v>1.040305831355118</v>
       </c>
       <c r="M7">
-        <v>1.064059181301213</v>
+        <v>1.046736272792307</v>
       </c>
       <c r="N7">
-        <v>1.046609097682524</v>
+        <v>1.034330799799051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039192081438935</v>
+        <v>1.007065031008528</v>
       </c>
       <c r="D8">
-        <v>1.039918811074172</v>
+        <v>1.02348760193862</v>
       </c>
       <c r="E8">
-        <v>1.052727809859556</v>
+        <v>1.024247363946126</v>
       </c>
       <c r="F8">
-        <v>1.060139641234231</v>
+        <v>1.030346662200778</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03742022065588</v>
+        <v>1.049485223025984</v>
       </c>
       <c r="J8">
-        <v>1.044167314591</v>
+        <v>1.02847025803215</v>
       </c>
       <c r="K8">
-        <v>1.042639422678679</v>
+        <v>1.034358546768468</v>
       </c>
       <c r="L8">
-        <v>1.055413387392443</v>
+        <v>1.035108608308911</v>
       </c>
       <c r="M8">
-        <v>1.062805364732367</v>
+        <v>1.041130678791685</v>
       </c>
       <c r="N8">
-        <v>1.045650151945384</v>
+        <v>1.029930803765743</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036680592517538</v>
+        <v>0.9945482978613691</v>
       </c>
       <c r="D9">
-        <v>1.038094205336963</v>
+        <v>1.014438762826223</v>
       </c>
       <c r="E9">
-        <v>1.050250612578387</v>
+        <v>1.01257141831882</v>
       </c>
       <c r="F9">
-        <v>1.057500020470951</v>
+        <v>1.017921155635275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03686988799859</v>
+        <v>1.045635425924751</v>
       </c>
       <c r="J9">
-        <v>1.042475643055101</v>
+        <v>1.020295049562849</v>
       </c>
       <c r="K9">
-        <v>1.041249966647628</v>
+        <v>1.027301845572348</v>
       </c>
       <c r="L9">
-        <v>1.053367393215216</v>
+        <v>1.025463773390072</v>
       </c>
       <c r="M9">
-        <v>1.06059402144165</v>
+        <v>1.030730015236289</v>
       </c>
       <c r="N9">
-        <v>1.043956078041866</v>
+        <v>1.021743985562706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035006219901886</v>
+        <v>0.985728706290993</v>
       </c>
       <c r="D10">
-        <v>1.036875982406863</v>
+        <v>1.008073470009617</v>
       </c>
       <c r="E10">
-        <v>1.048600847700992</v>
+        <v>1.004376927113676</v>
       </c>
       <c r="F10">
-        <v>1.055741952748326</v>
+        <v>1.009197355405997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036493741147862</v>
+        <v>1.042849811075616</v>
       </c>
       <c r="J10">
-        <v>1.041344979654882</v>
+        <v>1.014520214474079</v>
       </c>
       <c r="K10">
-        <v>1.040318454116175</v>
+        <v>1.022298469583692</v>
       </c>
       <c r="L10">
-        <v>1.052002020910893</v>
+        <v>1.018667601935259</v>
       </c>
       <c r="M10">
-        <v>1.059118467450013</v>
+        <v>1.023402510940208</v>
       </c>
       <c r="N10">
-        <v>1.042823808969931</v>
+        <v>1.015960949545727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034281178587605</v>
+        <v>0.9817835776416693</v>
       </c>
       <c r="D11">
-        <v>1.03634805122602</v>
+        <v>1.005229985554108</v>
       </c>
       <c r="E11">
-        <v>1.047886881815552</v>
+        <v>1.000719912277043</v>
       </c>
       <c r="F11">
-        <v>1.054981084099288</v>
+        <v>1.005303235932317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036328671429852</v>
+        <v>1.041587334238183</v>
       </c>
       <c r="J11">
-        <v>1.040854704755316</v>
+        <v>1.011934320041568</v>
       </c>
       <c r="K11">
-        <v>1.039913864976925</v>
+        <v>1.020053941416744</v>
       </c>
       <c r="L11">
-        <v>1.051410470953335</v>
+        <v>1.015628264865422</v>
       </c>
       <c r="M11">
-        <v>1.058479219051003</v>
+        <v>1.020125829217371</v>
       </c>
       <c r="N11">
-        <v>1.042332837823772</v>
+        <v>1.013371382846516</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03401186107775</v>
+        <v>0.9802979608935335</v>
       </c>
       <c r="D12">
-        <v>1.03615188932918</v>
+        <v>1.004159900011618</v>
       </c>
       <c r="E12">
-        <v>1.047621741819927</v>
+        <v>0.9993441358874688</v>
       </c>
       <c r="F12">
-        <v>1.054698521149793</v>
+        <v>1.003838116649609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036267027400159</v>
+        <v>1.041109533881093</v>
       </c>
       <c r="J12">
-        <v>1.040672490902056</v>
+        <v>1.010960202313751</v>
       </c>
       <c r="K12">
-        <v>1.039763396567115</v>
+        <v>1.019207834512606</v>
       </c>
       <c r="L12">
-        <v>1.051190692362053</v>
+        <v>1.014483912014753</v>
       </c>
       <c r="M12">
-        <v>1.058241724716691</v>
+        <v>1.018892151975041</v>
       </c>
       <c r="N12">
-        <v>1.04215036520594</v>
+        <v>1.012395881759793</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034069630832295</v>
+        <v>0.9806175672071198</v>
       </c>
       <c r="D13">
-        <v>1.036193969648155</v>
+        <v>1.00439007868264</v>
       </c>
       <c r="E13">
-        <v>1.04767861259731</v>
+        <v>0.9996400499105169</v>
       </c>
       <c r="F13">
-        <v>1.054759129265528</v>
+        <v>1.004153253988954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036280265176001</v>
+        <v>1.041212431481431</v>
       </c>
       <c r="J13">
-        <v>1.040711581098779</v>
+        <v>1.011169782584327</v>
       </c>
       <c r="K13">
-        <v>1.039795680967989</v>
+        <v>1.019389899256578</v>
       </c>
       <c r="L13">
-        <v>1.051237837910592</v>
+        <v>1.01473009214338</v>
       </c>
       <c r="M13">
-        <v>1.058292670281694</v>
+        <v>1.019157546371745</v>
       </c>
       <c r="N13">
-        <v>1.042189510915226</v>
+        <v>1.012605759658392</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034258916822697</v>
+        <v>0.9816611962717454</v>
       </c>
       <c r="D14">
-        <v>1.036331837741924</v>
+        <v>1.005141820000711</v>
       </c>
       <c r="E14">
-        <v>1.047864964064891</v>
+        <v>1.00060655153933</v>
       </c>
       <c r="F14">
-        <v>1.054957726186688</v>
+        <v>1.005182516532092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036323582642197</v>
+        <v>1.041548022313209</v>
       </c>
       <c r="J14">
-        <v>1.040839645022785</v>
+        <v>1.011854081364052</v>
       </c>
       <c r="K14">
-        <v>1.039901431005277</v>
+        <v>1.019984258739485</v>
       </c>
       <c r="L14">
-        <v>1.051392305020398</v>
+        <v>1.015533992102339</v>
       </c>
       <c r="M14">
-        <v>1.058459588697322</v>
+        <v>1.0200241970506</v>
       </c>
       <c r="N14">
-        <v>1.042317756704694</v>
+        <v>1.013291030220874</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034375541496429</v>
+        <v>0.9823014915962889</v>
       </c>
       <c r="D15">
-        <v>1.036416774251913</v>
+        <v>1.005603127892382</v>
       </c>
       <c r="E15">
-        <v>1.047979789125383</v>
+        <v>1.00119970642485</v>
       </c>
       <c r="F15">
-        <v>1.055080095914851</v>
+        <v>1.005814169366351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036350228265321</v>
+        <v>1.041753604180203</v>
       </c>
       <c r="J15">
-        <v>1.04091853565476</v>
+        <v>1.012273873720003</v>
       </c>
       <c r="K15">
-        <v>1.039966562448477</v>
+        <v>1.020348800687726</v>
       </c>
       <c r="L15">
-        <v>1.051487470590795</v>
+        <v>1.016027231449165</v>
       </c>
       <c r="M15">
-        <v>1.058562426135876</v>
+        <v>1.020555942713176</v>
       </c>
       <c r="N15">
-        <v>1.042396759370414</v>
+        <v>1.013711418730121</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03505433786729</v>
+        <v>0.9859877675862818</v>
       </c>
       <c r="D16">
-        <v>1.036911010367046</v>
+        <v>1.008260279108148</v>
       </c>
       <c r="E16">
-        <v>1.048648239519812</v>
+        <v>1.004617251484253</v>
       </c>
       <c r="F16">
-        <v>1.055792457191417</v>
+        <v>1.009453242027282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036504650028908</v>
+        <v>1.04293237790119</v>
       </c>
       <c r="J16">
-        <v>1.041377503024011</v>
+        <v>1.014689968548935</v>
       </c>
       <c r="K16">
-        <v>1.040345279281738</v>
+        <v>1.0224457318984</v>
       </c>
       <c r="L16">
-        <v>1.052041273054608</v>
+        <v>1.018867203231814</v>
       </c>
       <c r="M16">
-        <v>1.059160885407559</v>
+        <v>1.023617704822436</v>
       </c>
       <c r="N16">
-        <v>1.042856378525974</v>
+        <v>1.01613094469084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035480121098227</v>
+        <v>0.9882654296208695</v>
       </c>
       <c r="D17">
-        <v>1.037220915977043</v>
+        <v>1.009903145977975</v>
       </c>
       <c r="E17">
-        <v>1.04906764581584</v>
+        <v>1.006731151569915</v>
       </c>
       <c r="F17">
-        <v>1.056239405673055</v>
+        <v>1.011703926168247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036600926944817</v>
+        <v>1.043656447233545</v>
       </c>
       <c r="J17">
-        <v>1.041665216183119</v>
+        <v>1.01618214051421</v>
       </c>
       <c r="K17">
-        <v>1.040582506893504</v>
+        <v>1.02373973698257</v>
       </c>
       <c r="L17">
-        <v>1.052388568873902</v>
+        <v>1.020622179750954</v>
       </c>
       <c r="M17">
-        <v>1.059536196150685</v>
+        <v>1.025509808665432</v>
       </c>
       <c r="N17">
-        <v>1.043144500270769</v>
+        <v>1.017625235711461</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035728470711877</v>
+        <v>0.9895818669015771</v>
       </c>
       <c r="D18">
-        <v>1.037401636919231</v>
+        <v>1.010853037863708</v>
       </c>
       <c r="E18">
-        <v>1.049312316373616</v>
+        <v>1.007953737472796</v>
       </c>
       <c r="F18">
-        <v>1.056500140463716</v>
+        <v>1.013005538655349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036656871787165</v>
+        <v>1.044073382730401</v>
       </c>
       <c r="J18">
-        <v>1.041832967824022</v>
+        <v>1.017044319785987</v>
       </c>
       <c r="K18">
-        <v>1.040720758289647</v>
+        <v>1.024487026976751</v>
       </c>
       <c r="L18">
-        <v>1.052591108372816</v>
+        <v>1.021636577004312</v>
       </c>
       <c r="M18">
-        <v>1.059755077342124</v>
+        <v>1.02660349323955</v>
       </c>
       <c r="N18">
-        <v>1.043312490138243</v>
+        <v>1.018488639376697</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035813151106631</v>
+        <v>0.9900287248407164</v>
       </c>
       <c r="D19">
-        <v>1.037463251000007</v>
+        <v>1.01117553024719</v>
       </c>
       <c r="E19">
-        <v>1.049395749160389</v>
+        <v>1.008368871663126</v>
       </c>
       <c r="F19">
-        <v>1.056589050631416</v>
+        <v>1.013447492838643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036675911595945</v>
+        <v>1.044214642419444</v>
       </c>
       <c r="J19">
-        <v>1.041890155512895</v>
+        <v>1.017336935843548</v>
       </c>
       <c r="K19">
-        <v>1.040767878180575</v>
+        <v>1.024740583912403</v>
       </c>
       <c r="L19">
-        <v>1.052660163642463</v>
+        <v>1.021980917323078</v>
       </c>
       <c r="M19">
-        <v>1.059829704888601</v>
+        <v>1.026974752374725</v>
       </c>
       <c r="N19">
-        <v>1.043369759040194</v>
+        <v>1.018781670982623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035434438855843</v>
+        <v>0.9880223167675234</v>
       </c>
       <c r="D20">
-        <v>1.03718767035523</v>
+        <v>1.009727752511488</v>
       </c>
       <c r="E20">
-        <v>1.049022643565362</v>
+        <v>1.006505434879402</v>
       </c>
       <c r="F20">
-        <v>1.056191448475772</v>
+        <v>1.011463612746639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036590619255246</v>
+        <v>1.04357932300043</v>
       </c>
       <c r="J20">
-        <v>1.041634354171971</v>
+        <v>1.016022896032061</v>
       </c>
       <c r="K20">
-        <v>1.040557066971545</v>
+        <v>1.023601680940464</v>
       </c>
       <c r="L20">
-        <v>1.052351310659867</v>
+        <v>1.020434850518458</v>
       </c>
       <c r="M20">
-        <v>1.059495932091115</v>
+        <v>1.025307839530192</v>
       </c>
       <c r="N20">
-        <v>1.043113594432026</v>
+        <v>1.017465765083881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034203176957897</v>
+        <v>0.9813544423890643</v>
       </c>
       <c r="D21">
-        <v>1.036291240810066</v>
+        <v>1.004920840886016</v>
       </c>
       <c r="E21">
-        <v>1.047810086584142</v>
+        <v>1.000322430141787</v>
       </c>
       <c r="F21">
-        <v>1.054899242758742</v>
+        <v>1.004879949419063</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036310835831125</v>
+        <v>1.041449447177437</v>
       </c>
       <c r="J21">
-        <v>1.040801936259834</v>
+        <v>1.011652954475147</v>
       </c>
       <c r="K21">
-        <v>1.039870295389151</v>
+        <v>1.019809582315632</v>
       </c>
       <c r="L21">
-        <v>1.051346819705798</v>
+        <v>1.015297696559255</v>
       </c>
       <c r="M21">
-        <v>1.058410436740346</v>
+        <v>1.019769455718816</v>
       </c>
       <c r="N21">
-        <v>1.042279994390974</v>
+        <v>1.013089617708717</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033429005064812</v>
+        <v>0.9770443894184009</v>
       </c>
       <c r="D22">
-        <v>1.035727245468119</v>
+        <v>1.00181775497232</v>
       </c>
       <c r="E22">
-        <v>1.047048043464904</v>
+        <v>0.9963336764048981</v>
       </c>
       <c r="F22">
-        <v>1.054087114426811</v>
+        <v>1.000631881513086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036133016883278</v>
+        <v>1.040058821565977</v>
       </c>
       <c r="J22">
-        <v>1.040277960677806</v>
+        <v>1.00882627037077</v>
       </c>
       <c r="K22">
-        <v>1.039437418766028</v>
+        <v>1.017353287585206</v>
       </c>
       <c r="L22">
-        <v>1.050714963474243</v>
+        <v>1.011978115454943</v>
       </c>
       <c r="M22">
-        <v>1.057727658950062</v>
+        <v>1.016190831091696</v>
       </c>
       <c r="N22">
-        <v>1.041755274703519</v>
+        <v>1.010258919388688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033839411231158</v>
+        <v>0.9793408369615465</v>
       </c>
       <c r="D23">
-        <v>1.036026265488982</v>
+        <v>1.003470694313925</v>
       </c>
       <c r="E23">
-        <v>1.04745198486999</v>
+        <v>0.9984581659031401</v>
       </c>
       <c r="F23">
-        <v>1.054517607650708</v>
+        <v>1.002894569938032</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036227462901364</v>
+        <v>1.040801042915952</v>
       </c>
       <c r="J23">
-        <v>1.040555787132644</v>
+        <v>1.010332527046324</v>
       </c>
       <c r="K23">
-        <v>1.039666996849299</v>
+        <v>1.018662482824742</v>
       </c>
       <c r="L23">
-        <v>1.051049950284913</v>
+        <v>1.013746707535444</v>
       </c>
       <c r="M23">
-        <v>1.058089639399424</v>
+        <v>1.018097414543861</v>
       </c>
       <c r="N23">
-        <v>1.04203349570379</v>
+        <v>1.011767315121491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035455080702347</v>
+        <v>0.9881322062528675</v>
       </c>
       <c r="D24">
-        <v>1.037202692749612</v>
+        <v>1.009807031061293</v>
       </c>
       <c r="E24">
-        <v>1.049042978027741</v>
+        <v>1.006607458647454</v>
       </c>
       <c r="F24">
-        <v>1.056213118153414</v>
+        <v>1.011572234483116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036595277510997</v>
+        <v>1.043614188785273</v>
       </c>
       <c r="J24">
-        <v>1.041648299591909</v>
+        <v>1.016094876978475</v>
       </c>
       <c r="K24">
-        <v>1.040568562546206</v>
+        <v>1.023664085593781</v>
       </c>
       <c r="L24">
-        <v>1.052368146142557</v>
+        <v>1.020519525056731</v>
       </c>
       <c r="M24">
-        <v>1.059514125782714</v>
+        <v>1.025399131358209</v>
       </c>
       <c r="N24">
-        <v>1.043127559656059</v>
+        <v>1.017537848251496</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037329878366224</v>
+        <v>0.9978636653611794</v>
       </c>
       <c r="D25">
-        <v>1.038566232029918</v>
+        <v>1.016834118505807</v>
       </c>
       <c r="E25">
-        <v>1.050890727272617</v>
+        <v>1.015658704385619</v>
       </c>
       <c r="F25">
-        <v>1.058182128641149</v>
+        <v>1.021207158943836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037013794891748</v>
+        <v>1.046667944225697</v>
       </c>
       <c r="J25">
-        <v>1.042913488514703</v>
+        <v>1.022463140204683</v>
       </c>
       <c r="K25">
-        <v>1.041610093134266</v>
+        <v>1.029176608533393</v>
       </c>
       <c r="L25">
-        <v>1.053896573876167</v>
+        <v>1.028018706723773</v>
       </c>
       <c r="M25">
-        <v>1.061165939613411</v>
+        <v>1.033484945290152</v>
       </c>
       <c r="N25">
-        <v>1.044394545292243</v>
+        <v>1.023915155141935</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005287186275768</v>
+        <v>0.9935369377316891</v>
       </c>
       <c r="D2">
-        <v>1.022201536917873</v>
+        <v>1.016228737909246</v>
       </c>
       <c r="E2">
-        <v>1.022585538181629</v>
+        <v>1.001756805428883</v>
       </c>
       <c r="F2">
-        <v>1.028578478004094</v>
+        <v>1.013822451317208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048946837316028</v>
+        <v>1.04475228402075</v>
       </c>
       <c r="J2">
-        <v>1.027310900378673</v>
+        <v>1.015912691397412</v>
       </c>
       <c r="K2">
-        <v>1.033359996995595</v>
+        <v>1.027466517374886</v>
       </c>
       <c r="L2">
-        <v>1.033738938434686</v>
+        <v>1.013191719301831</v>
       </c>
       <c r="M2">
-        <v>1.039653524706778</v>
+        <v>1.02509251845847</v>
       </c>
       <c r="N2">
-        <v>1.028769799691424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009251492598646</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028431332739058</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030491335391882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010499238851309</v>
+        <v>0.9974947265621492</v>
       </c>
       <c r="D3">
-        <v>1.02597234199883</v>
+        <v>1.018840711062225</v>
       </c>
       <c r="E3">
-        <v>1.027460740898322</v>
+        <v>1.005204901536719</v>
       </c>
       <c r="F3">
-        <v>1.033765395863635</v>
+        <v>1.016946381404828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050516399846056</v>
+        <v>1.045580329263606</v>
       </c>
       <c r="J3">
-        <v>1.030707719352528</v>
+        <v>1.018053921636255</v>
       </c>
       <c r="K3">
-        <v>1.036283346465045</v>
+        <v>1.029238066003748</v>
       </c>
       <c r="L3">
-        <v>1.037753911229359</v>
+        <v>1.015771615058591</v>
       </c>
       <c r="M3">
-        <v>1.043983728441762</v>
+        <v>1.027366926250816</v>
       </c>
       <c r="N3">
-        <v>1.032171442537837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009973901026135</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030231402482991</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031741308859875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013794788764576</v>
+        <v>1.00000479483431</v>
       </c>
       <c r="D4">
-        <v>1.02835718015572</v>
+        <v>1.020497804114624</v>
       </c>
       <c r="E4">
-        <v>1.030548508685561</v>
+        <v>1.007396946081849</v>
       </c>
       <c r="F4">
-        <v>1.037050120007764</v>
+        <v>1.018935962807114</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051494360999609</v>
+        <v>1.046090283319583</v>
       </c>
       <c r="J4">
-        <v>1.032852085915523</v>
+        <v>1.019408377960326</v>
       </c>
       <c r="K4">
-        <v>1.038124993946119</v>
+        <v>1.030354976451807</v>
       </c>
       <c r="L4">
-        <v>1.04029170699019</v>
+        <v>1.017406908781933</v>
       </c>
       <c r="M4">
-        <v>1.046721037409646</v>
+        <v>1.028811095516746</v>
       </c>
       <c r="N4">
-        <v>1.034318854347313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01043084947786</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031374381281324</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032531982590993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015162552735427</v>
+        <v>1.001050690388313</v>
       </c>
       <c r="D5">
-        <v>1.029347036203738</v>
+        <v>1.021190123847041</v>
       </c>
       <c r="E5">
-        <v>1.031831245377955</v>
+        <v>1.008311851595165</v>
       </c>
       <c r="F5">
-        <v>1.038414570522169</v>
+        <v>1.019766061112342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051896721792993</v>
+        <v>1.046300291039598</v>
       </c>
       <c r="J5">
-        <v>1.033741209031635</v>
+        <v>1.019972948717846</v>
       </c>
       <c r="K5">
-        <v>1.038887660378025</v>
+        <v>1.030820994385091</v>
       </c>
       <c r="L5">
-        <v>1.041344732716217</v>
+        <v>1.018088874080946</v>
       </c>
       <c r="M5">
-        <v>1.047856912901804</v>
+        <v>1.029412869408885</v>
       </c>
       <c r="N5">
-        <v>1.035209240120233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010621682065255</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031850650938091</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03286874340899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015391190190497</v>
+        <v>1.001228618641031</v>
       </c>
       <c r="D6">
-        <v>1.029512503990923</v>
+        <v>1.021310044717255</v>
       </c>
       <c r="E6">
-        <v>1.032045739523373</v>
+        <v>1.008467928524375</v>
       </c>
       <c r="F6">
-        <v>1.03864272243218</v>
+        <v>1.019906307351623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051963772126537</v>
+        <v>1.046337294696868</v>
       </c>
       <c r="J6">
-        <v>1.033889784406892</v>
+        <v>1.020070248541069</v>
       </c>
       <c r="K6">
-        <v>1.039015048537834</v>
+        <v>1.030902919997232</v>
       </c>
       <c r="L6">
-        <v>1.041520742492551</v>
+        <v>1.018205870770472</v>
       </c>
       <c r="M6">
-        <v>1.048046774573986</v>
+        <v>1.029514820635361</v>
       </c>
       <c r="N6">
-        <v>1.035358026489565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010655022884859</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031931339477262</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032935501535107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013813133426499</v>
+        <v>1.000026839998094</v>
       </c>
       <c r="D7">
-        <v>1.02837045608113</v>
+        <v>1.020518084157545</v>
       </c>
       <c r="E7">
-        <v>1.030565708220055</v>
+        <v>1.007417189602048</v>
       </c>
       <c r="F7">
-        <v>1.037068415613173</v>
+        <v>1.018950551722252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051499771533051</v>
+        <v>1.046098706019488</v>
       </c>
       <c r="J7">
-        <v>1.032864014427406</v>
+        <v>1.01942376879224</v>
       </c>
       <c r="K7">
-        <v>1.038135229654355</v>
+        <v>1.030372103221139</v>
       </c>
       <c r="L7">
-        <v>1.040305831355118</v>
+        <v>1.017423940736826</v>
       </c>
       <c r="M7">
-        <v>1.046736272792307</v>
+        <v>1.028822589815563</v>
       </c>
       <c r="N7">
-        <v>1.034330799799051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010437285247543</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031383478365224</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032564401538823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007065031008528</v>
+        <v>0.9948950929547465</v>
       </c>
       <c r="D8">
-        <v>1.02348760193862</v>
+        <v>1.017131756942939</v>
       </c>
       <c r="E8">
-        <v>1.024247363946126</v>
+        <v>1.002940140797646</v>
       </c>
       <c r="F8">
-        <v>1.030346662200778</v>
+        <v>1.014889182286622</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049485223025984</v>
+        <v>1.045044300150537</v>
       </c>
       <c r="J8">
-        <v>1.02847025803215</v>
+        <v>1.016652421217415</v>
       </c>
       <c r="K8">
-        <v>1.034358546768468</v>
+        <v>1.028084562290866</v>
       </c>
       <c r="L8">
-        <v>1.035108608308911</v>
+        <v>1.01408043275453</v>
       </c>
       <c r="M8">
-        <v>1.041130678791685</v>
+        <v>1.025871177502074</v>
       </c>
       <c r="N8">
-        <v>1.029930803765743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009502684630343</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029047599439125</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030951505025536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9945482978613691</v>
+        <v>0.9854321364761115</v>
       </c>
       <c r="D9">
-        <v>1.014438762826223</v>
+        <v>1.010885601491772</v>
       </c>
       <c r="E9">
-        <v>1.01257141831882</v>
+        <v>0.994726022752941</v>
       </c>
       <c r="F9">
-        <v>1.017921155635275</v>
+        <v>1.00747275456467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045635425924751</v>
+        <v>1.042975675538163</v>
       </c>
       <c r="J9">
-        <v>1.020295049562849</v>
+        <v>1.011510023538683</v>
       </c>
       <c r="K9">
-        <v>1.027301845572348</v>
+        <v>1.023804502180071</v>
       </c>
       <c r="L9">
-        <v>1.025463773390072</v>
+        <v>1.007905250053729</v>
       </c>
       <c r="M9">
-        <v>1.030730015236289</v>
+        <v>1.020445743937016</v>
       </c>
       <c r="N9">
-        <v>1.021743985562706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007766314791729</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024753649452871</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027921936555786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.985728706290993</v>
+        <v>0.9789282531441176</v>
       </c>
       <c r="D10">
-        <v>1.008073470009617</v>
+        <v>1.006606162370618</v>
       </c>
       <c r="E10">
-        <v>1.004376927113676</v>
+        <v>0.9891246395246969</v>
       </c>
       <c r="F10">
-        <v>1.009197355405997</v>
+        <v>1.002671228392504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042849811075616</v>
+        <v>1.041492268278891</v>
       </c>
       <c r="J10">
-        <v>1.014520214474079</v>
+        <v>1.0080035869979</v>
       </c>
       <c r="K10">
-        <v>1.022298469583692</v>
+        <v>1.020857156201219</v>
       </c>
       <c r="L10">
-        <v>1.018667601935259</v>
+        <v>1.003693068013984</v>
       </c>
       <c r="M10">
-        <v>1.023402510940208</v>
+        <v>1.016992419898972</v>
       </c>
       <c r="N10">
-        <v>1.015960949545727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006588576631419</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022072991192752</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02585494696029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9817835776416693</v>
+        <v>0.9768621720979284</v>
       </c>
       <c r="D11">
-        <v>1.005229985554108</v>
+        <v>1.005282458261418</v>
       </c>
       <c r="E11">
-        <v>1.000719912277043</v>
+        <v>0.9874572667813023</v>
       </c>
       <c r="F11">
-        <v>1.005303235932317</v>
+        <v>1.003122079259355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041587334238183</v>
+        <v>1.04110664770328</v>
       </c>
       <c r="J11">
-        <v>1.011934320041568</v>
+        <v>1.00723022832638</v>
       </c>
       <c r="K11">
-        <v>1.020053941416744</v>
+        <v>1.020105438019028</v>
       </c>
       <c r="L11">
-        <v>1.015628264865422</v>
+        <v>1.002619661495025</v>
       </c>
       <c r="M11">
-        <v>1.020125829217371</v>
+        <v>1.017985356941286</v>
       </c>
       <c r="N11">
-        <v>1.013371382846516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00637887933654</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023302790032094</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025356709195385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9802979608935335</v>
+        <v>0.976361859572686</v>
       </c>
       <c r="D12">
-        <v>1.004159900011618</v>
+        <v>1.004973266610643</v>
       </c>
       <c r="E12">
-        <v>0.9993441358874688</v>
+        <v>0.9871038872204658</v>
       </c>
       <c r="F12">
-        <v>1.003838116649609</v>
+        <v>1.004145736755785</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041109533881093</v>
+        <v>1.041053909289067</v>
       </c>
       <c r="J12">
-        <v>1.010960202313751</v>
+        <v>1.007201448838678</v>
       </c>
       <c r="K12">
-        <v>1.019207834512606</v>
+        <v>1.020005802922061</v>
       </c>
       <c r="L12">
-        <v>1.014483912014753</v>
+        <v>1.002482398367063</v>
       </c>
       <c r="M12">
-        <v>1.018892151975041</v>
+        <v>1.019193939676281</v>
       </c>
       <c r="N12">
-        <v>1.012395881759793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006408086836707</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024590032078734</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025286262224936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806175672071198</v>
+        <v>0.9770395078592353</v>
       </c>
       <c r="D13">
-        <v>1.00439007868264</v>
+        <v>1.00543420018418</v>
       </c>
       <c r="E13">
-        <v>0.9996400499105169</v>
+        <v>0.9877425086052259</v>
       </c>
       <c r="F13">
-        <v>1.004153253988954</v>
+        <v>1.005702688590136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041212431481431</v>
+        <v>1.041264700161278</v>
       </c>
       <c r="J13">
-        <v>1.011169782584327</v>
+        <v>1.007752111110517</v>
       </c>
       <c r="K13">
-        <v>1.019389899256578</v>
+        <v>1.020414338092883</v>
       </c>
       <c r="L13">
-        <v>1.01473009214338</v>
+        <v>1.003063534207381</v>
       </c>
       <c r="M13">
-        <v>1.019157546371745</v>
+        <v>1.020677773870173</v>
       </c>
       <c r="N13">
-        <v>1.012605759658392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006627575980785</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026043361365454</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025572592152667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9816611962717454</v>
+        <v>0.9780370511561238</v>
       </c>
       <c r="D14">
-        <v>1.005141820000711</v>
+        <v>1.006099805236698</v>
       </c>
       <c r="E14">
-        <v>1.00060655153933</v>
+        <v>0.9886287597293016</v>
       </c>
       <c r="F14">
-        <v>1.005182516532092</v>
+        <v>1.007006467485729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041548022313209</v>
+        <v>1.041528318842012</v>
       </c>
       <c r="J14">
-        <v>1.011854081364052</v>
+        <v>1.008389950101017</v>
       </c>
       <c r="K14">
-        <v>1.019984258739485</v>
+        <v>1.020924416903549</v>
       </c>
       <c r="L14">
-        <v>1.015533992102339</v>
+        <v>1.003785610137075</v>
       </c>
       <c r="M14">
-        <v>1.0200241970506</v>
+        <v>1.021814247886172</v>
       </c>
       <c r="N14">
-        <v>1.013291030220874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006864050512003</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027116791995105</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02593468620454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9823014915962889</v>
+        <v>0.9785476282954618</v>
       </c>
       <c r="D15">
-        <v>1.005603127892382</v>
+        <v>1.006439004898144</v>
       </c>
       <c r="E15">
-        <v>1.00119970642485</v>
+        <v>0.9890725056054849</v>
       </c>
       <c r="F15">
-        <v>1.005814169366351</v>
+        <v>1.007489250467465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041753604180203</v>
+        <v>1.041654707439671</v>
       </c>
       <c r="J15">
-        <v>1.012273873720003</v>
+        <v>1.008684230665183</v>
       </c>
       <c r="K15">
-        <v>1.020348800687726</v>
+        <v>1.021169245551786</v>
       </c>
       <c r="L15">
-        <v>1.016027231449165</v>
+        <v>1.00413039106717</v>
       </c>
       <c r="M15">
-        <v>1.020555942713176</v>
+        <v>1.02220014855281</v>
       </c>
       <c r="N15">
-        <v>1.013711418730121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006967906085957</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02745967557921</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026113737057855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9859877675862818</v>
+        <v>0.9811556535978557</v>
       </c>
       <c r="D16">
-        <v>1.008260279108148</v>
+        <v>1.008153864870691</v>
       </c>
       <c r="E16">
-        <v>1.004617251484253</v>
+        <v>0.9913015876817242</v>
       </c>
       <c r="F16">
-        <v>1.009453242027282</v>
+        <v>1.009261372166905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04293237790119</v>
+        <v>1.042255945696865</v>
       </c>
       <c r="J16">
-        <v>1.014689968548935</v>
+        <v>1.010058155920021</v>
       </c>
       <c r="K16">
-        <v>1.0224457318984</v>
+        <v>1.022341193131434</v>
       </c>
       <c r="L16">
-        <v>1.018867203231814</v>
+        <v>1.005792545547751</v>
       </c>
       <c r="M16">
-        <v>1.023617704822436</v>
+        <v>1.023429206542073</v>
       </c>
       <c r="N16">
-        <v>1.01613094469084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007423013065067</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028392045904412</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026945569421052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882654296208695</v>
+        <v>0.9826424825002964</v>
       </c>
       <c r="D17">
-        <v>1.009903145977975</v>
+        <v>1.009127085760985</v>
       </c>
       <c r="E17">
-        <v>1.006731151569915</v>
+        <v>0.9925570487763147</v>
       </c>
       <c r="F17">
-        <v>1.011703926168247</v>
+        <v>1.009943735100639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043656447233545</v>
+        <v>1.042578347839092</v>
       </c>
       <c r="J17">
-        <v>1.01618214051421</v>
+        <v>1.010784422748057</v>
       </c>
       <c r="K17">
-        <v>1.02373973698257</v>
+        <v>1.022976954503919</v>
       </c>
       <c r="L17">
-        <v>1.020622179750954</v>
+        <v>1.006696850693049</v>
       </c>
       <c r="M17">
-        <v>1.025509808665432</v>
+        <v>1.023779632384895</v>
       </c>
       <c r="N17">
-        <v>1.017625235711461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007650398669124</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028538748613096</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027397704806203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9895818669015771</v>
+        <v>0.9832674083613178</v>
       </c>
       <c r="D18">
-        <v>1.010853037863708</v>
+        <v>1.00952341045252</v>
       </c>
       <c r="E18">
-        <v>1.007953737472796</v>
+        <v>0.9930511908098927</v>
       </c>
       <c r="F18">
-        <v>1.013005538655349</v>
+        <v>1.009582644184249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044073382730401</v>
+        <v>1.042678625185022</v>
       </c>
       <c r="J18">
-        <v>1.017044319785987</v>
+        <v>1.010977805042382</v>
       </c>
       <c r="K18">
-        <v>1.024487026976751</v>
+        <v>1.023179757579921</v>
       </c>
       <c r="L18">
-        <v>1.021636577004312</v>
+        <v>1.006990957541085</v>
       </c>
       <c r="M18">
-        <v>1.02660349323955</v>
+        <v>1.023237993665314</v>
       </c>
       <c r="N18">
-        <v>1.018488639376697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007686439174213</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027870183150842</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027529320734028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9900287248407164</v>
+        <v>0.9830859575393863</v>
       </c>
       <c r="D19">
-        <v>1.01117553024719</v>
+        <v>1.009387505177223</v>
       </c>
       <c r="E19">
-        <v>1.008368871663126</v>
+        <v>0.9928295546492336</v>
       </c>
       <c r="F19">
-        <v>1.013447492838643</v>
+        <v>1.008169560774633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044214642419444</v>
+        <v>1.042575449518817</v>
       </c>
       <c r="J19">
-        <v>1.017336935843548</v>
+        <v>1.010665081199349</v>
       </c>
       <c r="K19">
-        <v>1.024740583912403</v>
+        <v>1.022982456874047</v>
       </c>
       <c r="L19">
-        <v>1.021980917323078</v>
+        <v>1.006708002998034</v>
       </c>
       <c r="M19">
-        <v>1.026974752374725</v>
+        <v>1.021784956334596</v>
       </c>
       <c r="N19">
-        <v>1.018781670982623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00754509343332</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026391240920876</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027396291723995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9880223167675234</v>
+        <v>0.9806379667557942</v>
       </c>
       <c r="D20">
-        <v>1.009727752511488</v>
+        <v>1.007743214594586</v>
       </c>
       <c r="E20">
-        <v>1.006505434879402</v>
+        <v>0.9905976944462042</v>
       </c>
       <c r="F20">
-        <v>1.011463612746639</v>
+        <v>1.00393526029194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04357932300043</v>
+        <v>1.041896550719052</v>
       </c>
       <c r="J20">
-        <v>1.016022896032061</v>
+        <v>1.008936219946474</v>
       </c>
       <c r="K20">
-        <v>1.023601680940464</v>
+        <v>1.021651261810416</v>
       </c>
       <c r="L20">
-        <v>1.020434850518458</v>
+        <v>1.004807911718681</v>
       </c>
       <c r="M20">
-        <v>1.025307839530192</v>
+        <v>1.017909264047314</v>
       </c>
       <c r="N20">
-        <v>1.017465765083881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00690576678144</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022787829913939</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026459037525737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9813544423890643</v>
+        <v>0.9755820442775035</v>
       </c>
       <c r="D21">
-        <v>1.004920840886016</v>
+        <v>1.004411619439369</v>
       </c>
       <c r="E21">
-        <v>1.000322430141787</v>
+        <v>0.9862342033669569</v>
       </c>
       <c r="F21">
-        <v>1.004879949419063</v>
+        <v>0.999833670068469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041449447177437</v>
+        <v>1.040696651888502</v>
       </c>
       <c r="J21">
-        <v>1.011652954475147</v>
+        <v>1.006137373847062</v>
       </c>
       <c r="K21">
-        <v>1.019809582315632</v>
+        <v>1.019309891595162</v>
       </c>
       <c r="L21">
-        <v>1.015297696559255</v>
+        <v>1.001481151946144</v>
       </c>
       <c r="M21">
-        <v>1.019769455718816</v>
+        <v>1.014818194306894</v>
       </c>
       <c r="N21">
-        <v>1.013089617708717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005956206590043</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020299706411136</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024806836551207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9770443894184009</v>
+        <v>0.9723747733596486</v>
       </c>
       <c r="D22">
-        <v>1.00181775497232</v>
+        <v>1.002298226574811</v>
       </c>
       <c r="E22">
-        <v>0.9963336764048981</v>
+        <v>0.9834790724318044</v>
       </c>
       <c r="F22">
-        <v>1.000631881513086</v>
+        <v>0.9973695378182814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040058821565977</v>
+        <v>1.039923530207089</v>
       </c>
       <c r="J22">
-        <v>1.00882627037077</v>
+        <v>1.004377241150886</v>
       </c>
       <c r="K22">
-        <v>1.017353287585206</v>
+        <v>1.017824292219446</v>
       </c>
       <c r="L22">
-        <v>1.011978115454943</v>
+        <v>0.9993850736257259</v>
       </c>
       <c r="M22">
-        <v>1.016190831091696</v>
+        <v>1.012993285406765</v>
       </c>
       <c r="N22">
-        <v>1.010258919388688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005360305684682</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018855369794314</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023742737819014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9793408369615465</v>
+        <v>0.9740751223822955</v>
       </c>
       <c r="D23">
-        <v>1.003470694313925</v>
+        <v>1.003413934795435</v>
       </c>
       <c r="E23">
-        <v>0.9984581659031401</v>
+        <v>0.9849381322238229</v>
       </c>
       <c r="F23">
-        <v>1.002894569938032</v>
+        <v>0.9986771206083592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040801042915952</v>
+        <v>1.040331907001592</v>
       </c>
       <c r="J23">
-        <v>1.010332527046324</v>
+        <v>1.005307825319542</v>
       </c>
       <c r="K23">
-        <v>1.018662482824742</v>
+        <v>1.018606811809787</v>
       </c>
       <c r="L23">
-        <v>1.013746707535444</v>
+        <v>1.000494106043628</v>
       </c>
       <c r="M23">
-        <v>1.018097414543861</v>
+        <v>1.013961409325857</v>
       </c>
       <c r="N23">
-        <v>1.011767315121491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005673966338324</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019621598473669</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024286257087629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9881322062528675</v>
+        <v>0.9806290739513644</v>
       </c>
       <c r="D24">
-        <v>1.009807031061293</v>
+        <v>1.007727376473793</v>
       </c>
       <c r="E24">
-        <v>1.006607458647454</v>
+        <v>0.9905785046672769</v>
       </c>
       <c r="F24">
-        <v>1.011572234483116</v>
+        <v>1.003736656195062</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043614188785273</v>
+        <v>1.04188023860646</v>
       </c>
       <c r="J24">
-        <v>1.016094876978475</v>
+        <v>1.008893736537426</v>
       </c>
       <c r="K24">
-        <v>1.023664085593781</v>
+        <v>1.021620136186428</v>
       </c>
       <c r="L24">
-        <v>1.020519525056731</v>
+        <v>1.004773117417857</v>
       </c>
       <c r="M24">
-        <v>1.025399131358209</v>
+        <v>1.017698468195055</v>
       </c>
       <c r="N24">
-        <v>1.017537848251496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00688496500077</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02257931252012</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026409274082342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9978636653611794</v>
+        <v>0.9879417080748999</v>
       </c>
       <c r="D25">
-        <v>1.016834118505807</v>
+        <v>1.012549116521598</v>
       </c>
       <c r="E25">
-        <v>1.015658704385619</v>
+        <v>0.9969006470588084</v>
       </c>
       <c r="F25">
-        <v>1.021207158943836</v>
+        <v>1.009427099253845</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046667944225697</v>
+        <v>1.04354328797189</v>
       </c>
       <c r="J25">
-        <v>1.022463140204683</v>
+        <v>1.012881809666535</v>
       </c>
       <c r="K25">
-        <v>1.029176608533393</v>
+        <v>1.024955697704343</v>
       </c>
       <c r="L25">
-        <v>1.028018706723773</v>
+        <v>1.009547267782962</v>
       </c>
       <c r="M25">
-        <v>1.033484945290152</v>
+        <v>1.021880813301905</v>
       </c>
       <c r="N25">
-        <v>1.023915155141935</v>
+        <v>1.008231679303158</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025889435232032</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02876484390375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9935369377316891</v>
+        <v>0.994101162330563</v>
       </c>
       <c r="D2">
-        <v>1.016228737909246</v>
+        <v>1.016541293609782</v>
       </c>
       <c r="E2">
-        <v>1.001756805428883</v>
+        <v>1.002317104469804</v>
       </c>
       <c r="F2">
-        <v>1.013822451317208</v>
+        <v>1.014066875621018</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04475228402075</v>
+        <v>1.044910926142305</v>
       </c>
       <c r="J2">
-        <v>1.015912691397412</v>
+        <v>1.016459749569063</v>
       </c>
       <c r="K2">
-        <v>1.027466517374886</v>
+        <v>1.027774893276181</v>
       </c>
       <c r="L2">
-        <v>1.013191719301831</v>
+        <v>1.0137442524615</v>
       </c>
       <c r="M2">
-        <v>1.02509251845847</v>
+        <v>1.025333654276754</v>
       </c>
       <c r="N2">
-        <v>1.009251492598646</v>
+        <v>1.011588560637185</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028431332739058</v>
+        <v>1.028622178812212</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030491335391882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03071825623751</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019558698638951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974947265621492</v>
+        <v>0.9978981470043691</v>
       </c>
       <c r="D3">
-        <v>1.018840711062225</v>
+        <v>1.018951210756146</v>
       </c>
       <c r="E3">
-        <v>1.005204901536719</v>
+        <v>1.005605984641126</v>
       </c>
       <c r="F3">
-        <v>1.016946381404828</v>
+        <v>1.017120910342581</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045580329263606</v>
+        <v>1.045636474945996</v>
       </c>
       <c r="J3">
-        <v>1.018053921636255</v>
+        <v>1.018446275113169</v>
       </c>
       <c r="K3">
-        <v>1.029238066003748</v>
+        <v>1.029347216297075</v>
       </c>
       <c r="L3">
-        <v>1.015771615058591</v>
+        <v>1.016167634864062</v>
       </c>
       <c r="M3">
-        <v>1.027366926250816</v>
+        <v>1.027539314156364</v>
       </c>
       <c r="N3">
-        <v>1.009973901026135</v>
+        <v>1.012121504641264</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030231402482991</v>
+        <v>1.030367837919201</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031741308859875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031827076630179</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019873885769942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00000479483431</v>
+        <v>1.000307586212319</v>
       </c>
       <c r="D4">
-        <v>1.020497804114624</v>
+        <v>1.020481136793149</v>
       </c>
       <c r="E4">
-        <v>1.007396946081849</v>
+        <v>1.007698198358373</v>
       </c>
       <c r="F4">
-        <v>1.018935962807114</v>
+        <v>1.0190668451353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046090283319583</v>
+        <v>1.046081808587396</v>
       </c>
       <c r="J4">
-        <v>1.019408377960326</v>
+        <v>1.01970342717448</v>
       </c>
       <c r="K4">
-        <v>1.030354976451807</v>
+        <v>1.030338500437691</v>
       </c>
       <c r="L4">
-        <v>1.017406908781933</v>
+        <v>1.017704592391225</v>
       </c>
       <c r="M4">
-        <v>1.028811095516746</v>
+        <v>1.028940470155459</v>
       </c>
       <c r="N4">
-        <v>1.01043084947786</v>
+        <v>1.012458806894555</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031374381281324</v>
+        <v>1.031476773944235</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032531982590993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032528999500493</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020069856997695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001050690388313</v>
+        <v>1.00131187473739</v>
       </c>
       <c r="D5">
-        <v>1.021190123847041</v>
+        <v>1.021120776357827</v>
       </c>
       <c r="E5">
-        <v>1.008311851595165</v>
+        <v>1.008571783865459</v>
       </c>
       <c r="F5">
-        <v>1.019766061112342</v>
+        <v>1.019878918368495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046300291039598</v>
+        <v>1.046265019838662</v>
       </c>
       <c r="J5">
-        <v>1.019972948717846</v>
+        <v>1.020227655063102</v>
       </c>
       <c r="K5">
-        <v>1.030820994385091</v>
+        <v>1.030752421748519</v>
       </c>
       <c r="L5">
-        <v>1.018088874080946</v>
+        <v>1.018345810880117</v>
       </c>
       <c r="M5">
-        <v>1.029412869408885</v>
+        <v>1.029524461595225</v>
       </c>
       <c r="N5">
-        <v>1.010621682065255</v>
+        <v>1.012599751793249</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031850650938091</v>
+        <v>1.031938969742687</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03286874340899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032829632075966</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020151359536705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001228618641031</v>
+        <v>1.001482761109127</v>
       </c>
       <c r="D6">
-        <v>1.021310044717255</v>
+        <v>1.021231846878365</v>
       </c>
       <c r="E6">
-        <v>1.008467928524375</v>
+        <v>1.008720864889172</v>
       </c>
       <c r="F6">
-        <v>1.019906307351623</v>
+        <v>1.020016115254077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046337294696868</v>
+        <v>1.046297520072385</v>
       </c>
       <c r="J6">
-        <v>1.020070248541069</v>
+        <v>1.02031812019016</v>
       </c>
       <c r="K6">
-        <v>1.030902919997232</v>
+        <v>1.03082559191185</v>
       </c>
       <c r="L6">
-        <v>1.018205870770472</v>
+        <v>1.018455905910178</v>
       </c>
       <c r="M6">
-        <v>1.029514820635361</v>
+        <v>1.029623403339337</v>
       </c>
       <c r="N6">
-        <v>1.010655022884859</v>
+        <v>1.012624420469798</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031931339477262</v>
+        <v>1.032017276439678</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032935501535107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032891066905065</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02016614323162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000026839998094</v>
+        <v>1.000336935777717</v>
       </c>
       <c r="D7">
-        <v>1.020518084157545</v>
+        <v>1.020506026630357</v>
       </c>
       <c r="E7">
-        <v>1.007417189602048</v>
+        <v>1.007725710458419</v>
       </c>
       <c r="F7">
-        <v>1.018950551722252</v>
+        <v>1.019084590749428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046098706019488</v>
+        <v>1.046092575174807</v>
       </c>
       <c r="J7">
-        <v>1.01942376879224</v>
+        <v>1.019725939093457</v>
       </c>
       <c r="K7">
-        <v>1.030372103221139</v>
+        <v>1.03036018403631</v>
       </c>
       <c r="L7">
-        <v>1.017423940736826</v>
+        <v>1.017728808262195</v>
       </c>
       <c r="M7">
-        <v>1.028822589815563</v>
+        <v>1.028955085366755</v>
       </c>
       <c r="N7">
-        <v>1.010437285247543</v>
+        <v>1.012491847287258</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031383478365224</v>
+        <v>1.031488341051175</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032564401538823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032566636992882</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020075738419052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948950929547465</v>
+        <v>0.9954289832208408</v>
       </c>
       <c r="D8">
-        <v>1.017131756942939</v>
+        <v>1.017391950577896</v>
       </c>
       <c r="E8">
-        <v>1.002940140797646</v>
+        <v>1.003470531692485</v>
       </c>
       <c r="F8">
-        <v>1.014889182286622</v>
+        <v>1.015120360209174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045044300150537</v>
+        <v>1.045176412686536</v>
       </c>
       <c r="J8">
-        <v>1.016652421217415</v>
+        <v>1.017170617003071</v>
       </c>
       <c r="K8">
-        <v>1.028084562290866</v>
+        <v>1.02834137961432</v>
       </c>
       <c r="L8">
-        <v>1.01408043275453</v>
+        <v>1.014603696751361</v>
       </c>
       <c r="M8">
-        <v>1.025871177502074</v>
+        <v>1.026099338891983</v>
       </c>
       <c r="N8">
-        <v>1.009502684630343</v>
+        <v>1.011859733119608</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029047599439125</v>
+        <v>1.029228176787961</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030951505025536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03114423071048</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019675628284801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9854321364761115</v>
+        <v>0.9863629537835797</v>
       </c>
       <c r="D9">
-        <v>1.010885601491772</v>
+        <v>1.011637277661969</v>
       </c>
       <c r="E9">
-        <v>0.994726022752941</v>
+        <v>0.9956479979680309</v>
       </c>
       <c r="F9">
-        <v>1.00747275456467</v>
+        <v>1.00787708271173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042975675538163</v>
+        <v>1.043356414397583</v>
       </c>
       <c r="J9">
-        <v>1.011510023538683</v>
+        <v>1.012406635527065</v>
       </c>
       <c r="K9">
-        <v>1.023804502180071</v>
+        <v>1.024544328137035</v>
       </c>
       <c r="L9">
-        <v>1.007905250053729</v>
+        <v>1.00881208021329</v>
       </c>
       <c r="M9">
-        <v>1.020445743937016</v>
+        <v>1.020843639560949</v>
       </c>
       <c r="N9">
-        <v>1.007766314791729</v>
+        <v>1.01059050402562</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024753649452871</v>
+        <v>1.025068564170241</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027921936555786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02845592425225</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018898020192837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789282531441176</v>
+        <v>0.9801752462332798</v>
       </c>
       <c r="D10">
-        <v>1.006606162370618</v>
+        <v>1.007724346287711</v>
       </c>
       <c r="E10">
-        <v>0.9891246395246969</v>
+        <v>0.9903570197287968</v>
       </c>
       <c r="F10">
-        <v>1.002671228392504</v>
+        <v>1.00321350402595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041492268278891</v>
+        <v>1.042057764563646</v>
       </c>
       <c r="J10">
-        <v>1.0080035869979</v>
+        <v>1.009198115323463</v>
       </c>
       <c r="K10">
-        <v>1.020857156201219</v>
+        <v>1.021955521901222</v>
       </c>
       <c r="L10">
-        <v>1.003693068013984</v>
+        <v>1.00490259156363</v>
       </c>
       <c r="M10">
-        <v>1.016992419898972</v>
+        <v>1.017524979056373</v>
       </c>
       <c r="N10">
-        <v>1.006588576631419</v>
+        <v>1.009852137254536</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022072991192752</v>
+        <v>1.022494459735465</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02585494696029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026644136988521</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018360559644578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9768621720979284</v>
+        <v>0.978251957318402</v>
       </c>
       <c r="D11">
-        <v>1.005282458261418</v>
+        <v>1.006541193519691</v>
       </c>
       <c r="E11">
-        <v>0.9874572667813023</v>
+        <v>0.9888293983933149</v>
       </c>
       <c r="F11">
-        <v>1.003122079259355</v>
+        <v>1.003721792338327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04110664770328</v>
+        <v>1.041742815584391</v>
       </c>
       <c r="J11">
-        <v>1.00723022832638</v>
+        <v>1.008558327944518</v>
       </c>
       <c r="K11">
-        <v>1.020105438019028</v>
+        <v>1.0213407978749</v>
       </c>
       <c r="L11">
-        <v>1.002619661495025</v>
+        <v>1.003965095980815</v>
       </c>
       <c r="M11">
-        <v>1.017985356941286</v>
+        <v>1.01857386076713</v>
       </c>
       <c r="N11">
-        <v>1.00637887933654</v>
+        <v>1.009947452268138</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023302790032094</v>
+        <v>1.023768290047451</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025356709195385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026245970074844</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018266910279938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.976361859572686</v>
+        <v>0.9777905031652893</v>
       </c>
       <c r="D12">
-        <v>1.004973266610643</v>
+        <v>1.006266773862103</v>
       </c>
       <c r="E12">
-        <v>0.9871038872204658</v>
+        <v>0.9885138703330432</v>
       </c>
       <c r="F12">
-        <v>1.004145736755785</v>
+        <v>1.004758713373478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041053909289067</v>
+        <v>1.041707501623496</v>
       </c>
       <c r="J12">
-        <v>1.007201448838678</v>
+        <v>1.008565485803695</v>
       </c>
       <c r="K12">
-        <v>1.020005802922061</v>
+        <v>1.021274889222086</v>
       </c>
       <c r="L12">
-        <v>1.002482398367063</v>
+        <v>1.00386448526795</v>
       </c>
       <c r="M12">
-        <v>1.019193939676281</v>
+        <v>1.019795308319539</v>
       </c>
       <c r="N12">
-        <v>1.006408086836707</v>
+        <v>1.010079060362688</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024590032078734</v>
+        <v>1.025065542142089</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025286262224936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026199370485228</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018275645638403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9770395078592353</v>
+        <v>0.9784181826423449</v>
       </c>
       <c r="D13">
-        <v>1.00543420018418</v>
+        <v>1.006675887003128</v>
       </c>
       <c r="E13">
-        <v>0.9877425086052259</v>
+        <v>0.9891033252334398</v>
       </c>
       <c r="F13">
-        <v>1.005702688590136</v>
+        <v>1.006291530804779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041264700161278</v>
+        <v>1.041892149772829</v>
       </c>
       <c r="J13">
-        <v>1.007752111110517</v>
+        <v>1.009068787241722</v>
       </c>
       <c r="K13">
-        <v>1.020414338092883</v>
+        <v>1.021632687358791</v>
       </c>
       <c r="L13">
-        <v>1.003063534207381</v>
+        <v>1.004397561957208</v>
       </c>
       <c r="M13">
-        <v>1.020677773870173</v>
+        <v>1.021255547112646</v>
       </c>
       <c r="N13">
-        <v>1.006627575980785</v>
+        <v>1.010214529653138</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026043361365454</v>
+        <v>1.026500096891473</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025572592152667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026449579160263</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018367149791727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9780370511561238</v>
+        <v>0.9793423327165044</v>
       </c>
       <c r="D14">
-        <v>1.006099805236698</v>
+        <v>1.00726767479669</v>
       </c>
       <c r="E14">
-        <v>0.9886287597293016</v>
+        <v>0.989917507596248</v>
       </c>
       <c r="F14">
-        <v>1.007006467485729</v>
+        <v>1.007562519113531</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041528318842012</v>
+        <v>1.042118573223116</v>
       </c>
       <c r="J14">
-        <v>1.008389950101017</v>
+        <v>1.009637405421656</v>
       </c>
       <c r="K14">
-        <v>1.020924416903549</v>
+        <v>1.022070613478966</v>
       </c>
       <c r="L14">
-        <v>1.003785610137075</v>
+        <v>1.005049325342237</v>
       </c>
       <c r="M14">
-        <v>1.021814247886172</v>
+        <v>1.022359996517265</v>
       </c>
       <c r="N14">
-        <v>1.006864050512003</v>
+        <v>1.010310175831218</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027116791995105</v>
+        <v>1.027548152694949</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02593468620454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026760788507462</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018467608772516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9785476282954618</v>
+        <v>0.9798160511798314</v>
       </c>
       <c r="D15">
-        <v>1.006439004898144</v>
+        <v>1.007569998927712</v>
       </c>
       <c r="E15">
-        <v>0.9890725056054849</v>
+        <v>0.9903250764733341</v>
       </c>
       <c r="F15">
-        <v>1.007489250467465</v>
+        <v>1.008029310783176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041654707439671</v>
+        <v>1.042226386201279</v>
       </c>
       <c r="J15">
-        <v>1.008684230665183</v>
+        <v>1.009896962639236</v>
       </c>
       <c r="K15">
-        <v>1.021169245551786</v>
+        <v>1.022279412028427</v>
       </c>
       <c r="L15">
-        <v>1.00413039106717</v>
+        <v>1.005358826759676</v>
       </c>
       <c r="M15">
-        <v>1.02220014855281</v>
+        <v>1.022730282917558</v>
       </c>
       <c r="N15">
-        <v>1.006967906085957</v>
+        <v>1.010341029935192</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02745967557921</v>
+        <v>1.0278786836174</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026113737057855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026914930161248</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018513040547134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9811556535978557</v>
+        <v>0.9822470251291143</v>
       </c>
       <c r="D16">
-        <v>1.008153864870691</v>
+        <v>1.009104732974349</v>
       </c>
       <c r="E16">
-        <v>0.9913015876817242</v>
+        <v>0.992380352731798</v>
       </c>
       <c r="F16">
-        <v>1.009261372166905</v>
+        <v>1.00972620558585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042255945696865</v>
+        <v>1.04273687529</v>
       </c>
       <c r="J16">
-        <v>1.010058155920021</v>
+        <v>1.011104042689465</v>
       </c>
       <c r="K16">
-        <v>1.022341193131434</v>
+        <v>1.023275321080497</v>
       </c>
       <c r="L16">
-        <v>1.005792545547751</v>
+        <v>1.006851471930123</v>
       </c>
       <c r="M16">
-        <v>1.023429206542073</v>
+        <v>1.023885874665932</v>
       </c>
       <c r="N16">
-        <v>1.007423013065067</v>
+        <v>1.010450975709561</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028392045904412</v>
+        <v>1.028752998114733</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026945569421052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027622587124754</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018718238626242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9826424825002964</v>
+        <v>0.9836447665554955</v>
       </c>
       <c r="D17">
-        <v>1.009127085760985</v>
+        <v>1.009983652883451</v>
       </c>
       <c r="E17">
-        <v>0.9925570487763147</v>
+        <v>0.9935483262592057</v>
       </c>
       <c r="F17">
-        <v>1.009943735100639</v>
+        <v>1.010371307499322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042578347839092</v>
+        <v>1.043011750212545</v>
       </c>
       <c r="J17">
-        <v>1.010784422748057</v>
+        <v>1.011746292473088</v>
       </c>
       <c r="K17">
-        <v>1.022976954503919</v>
+        <v>1.023818867991686</v>
       </c>
       <c r="L17">
-        <v>1.006696850693049</v>
+        <v>1.007670430294913</v>
       </c>
       <c r="M17">
-        <v>1.023779632384895</v>
+        <v>1.024199901395028</v>
       </c>
       <c r="N17">
-        <v>1.007650398669124</v>
+        <v>1.010515935533765</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028538748613096</v>
+        <v>1.028870964401713</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027397704806203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02800976606272</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018824555144368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9832674083613178</v>
+        <v>0.9842385809042884</v>
       </c>
       <c r="D18">
-        <v>1.00952341045252</v>
+        <v>1.010345611596419</v>
       </c>
       <c r="E18">
-        <v>0.9930511908098927</v>
+        <v>0.9940120047204675</v>
       </c>
       <c r="F18">
-        <v>1.009582644184249</v>
+        <v>1.009998341863387</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042678625185022</v>
+        <v>1.043094731176162</v>
       </c>
       <c r="J18">
-        <v>1.010977805042382</v>
+        <v>1.011910550421909</v>
       </c>
       <c r="K18">
-        <v>1.023179757579921</v>
+        <v>1.023988124254526</v>
       </c>
       <c r="L18">
-        <v>1.006990957541085</v>
+        <v>1.007934905518703</v>
       </c>
       <c r="M18">
-        <v>1.023237993665314</v>
+        <v>1.023646694186396</v>
       </c>
       <c r="N18">
-        <v>1.007686439174213</v>
+        <v>1.010497721319632</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027870183150842</v>
+        <v>1.028193322898987</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027529320734028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02811652979682</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018845831334129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9830859575393863</v>
+        <v>0.9840746735623569</v>
       </c>
       <c r="D19">
-        <v>1.009387505177223</v>
+        <v>1.010228514975635</v>
       </c>
       <c r="E19">
-        <v>0.9928295546492336</v>
+        <v>0.9938078126811413</v>
       </c>
       <c r="F19">
-        <v>1.008169560774633</v>
+        <v>1.008595002541551</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042575449518817</v>
+        <v>1.043001102037268</v>
       </c>
       <c r="J19">
-        <v>1.010665081199349</v>
+        <v>1.011614886415849</v>
       </c>
       <c r="K19">
-        <v>1.022982456874047</v>
+        <v>1.023809386940706</v>
       </c>
       <c r="L19">
-        <v>1.006708002998034</v>
+        <v>1.007669171783332</v>
       </c>
       <c r="M19">
-        <v>1.021784956334596</v>
+        <v>1.022203249594087</v>
       </c>
       <c r="N19">
-        <v>1.00754509343332</v>
+        <v>1.010381024868502</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026391240920876</v>
+        <v>1.02672207611584</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027396291723995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027997250540025</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01878791482368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9806379667557942</v>
+        <v>0.9817781438995978</v>
       </c>
       <c r="D20">
-        <v>1.007743214594586</v>
+        <v>1.008749665506216</v>
       </c>
       <c r="E20">
-        <v>0.9905976944462042</v>
+        <v>0.9917251818991196</v>
       </c>
       <c r="F20">
-        <v>1.00393526029194</v>
+        <v>1.004430921740439</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041896550719052</v>
+        <v>1.042405743301572</v>
       </c>
       <c r="J20">
-        <v>1.008936219946474</v>
+        <v>1.01003001995386</v>
       </c>
       <c r="K20">
-        <v>1.021651261810416</v>
+        <v>1.022640387818784</v>
       </c>
       <c r="L20">
-        <v>1.004807911718681</v>
+        <v>1.005915111484958</v>
       </c>
       <c r="M20">
-        <v>1.017909264047314</v>
+        <v>1.018396303631907</v>
       </c>
       <c r="N20">
-        <v>1.00690576678144</v>
+        <v>1.009977781338266</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022787829913939</v>
+        <v>1.023173278906998</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026459037525737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027175074117888</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018505067590184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9755820442775035</v>
+        <v>0.9770868504868818</v>
       </c>
       <c r="D21">
-        <v>1.004411619439369</v>
+        <v>1.005783961631674</v>
       </c>
       <c r="E21">
-        <v>0.9862342033669569</v>
+        <v>0.987719647330527</v>
       </c>
       <c r="F21">
-        <v>0.999833670068469</v>
+        <v>1.000489433247032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040696651888502</v>
+        <v>1.041390167764833</v>
       </c>
       <c r="J21">
-        <v>1.006137373847062</v>
+        <v>1.007574811513456</v>
       </c>
       <c r="K21">
-        <v>1.019309891595162</v>
+        <v>1.020656577424918</v>
       </c>
       <c r="L21">
-        <v>1.001481151946144</v>
+        <v>1.002937470500963</v>
       </c>
       <c r="M21">
-        <v>1.014818194306894</v>
+        <v>1.015461539094743</v>
       </c>
       <c r="N21">
-        <v>1.005956206590043</v>
+        <v>1.009737579144139</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020299706411136</v>
+        <v>1.020808885294564</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024806836551207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025776026026487</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018087363932519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9723747733596486</v>
+        <v>0.9741115985170758</v>
       </c>
       <c r="D22">
-        <v>1.002298226574811</v>
+        <v>1.003902797126257</v>
       </c>
       <c r="E22">
-        <v>0.9834790724318044</v>
+        <v>0.9851915438178291</v>
       </c>
       <c r="F22">
-        <v>0.9973695378182814</v>
+        <v>0.9981271828819763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039923530207089</v>
+        <v>1.040733828276594</v>
       </c>
       <c r="J22">
-        <v>1.004377241150886</v>
+        <v>1.006031665215676</v>
       </c>
       <c r="K22">
-        <v>1.017824292219446</v>
+        <v>1.019397333304611</v>
       </c>
       <c r="L22">
-        <v>0.9993850736257259</v>
+        <v>1.001062179933992</v>
       </c>
       <c r="M22">
-        <v>1.012993285406765</v>
+        <v>1.013735832166291</v>
       </c>
       <c r="N22">
-        <v>1.005360305684682</v>
+        <v>1.009583346591401</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018855369794314</v>
+        <v>1.019443063877571</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023742737819014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024870686323545</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017820605185412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9740751223822955</v>
+        <v>0.9756752774879177</v>
       </c>
       <c r="D23">
-        <v>1.003413934795435</v>
+        <v>1.004885901819399</v>
       </c>
       <c r="E23">
-        <v>0.9849381322238229</v>
+        <v>0.9865168387274483</v>
       </c>
       <c r="F23">
-        <v>0.9986771206083592</v>
+        <v>0.9993747686513129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040331907001592</v>
+        <v>1.041075519704747</v>
       </c>
       <c r="J23">
-        <v>1.005307825319542</v>
+        <v>1.006834345918959</v>
       </c>
       <c r="K23">
-        <v>1.018606811809787</v>
+        <v>1.020050602261221</v>
       </c>
       <c r="L23">
-        <v>1.000494106043628</v>
+        <v>1.002041087661691</v>
       </c>
       <c r="M23">
-        <v>1.013961409325857</v>
+        <v>1.014645522738556</v>
       </c>
       <c r="N23">
-        <v>1.005673966338324</v>
+        <v>1.009619951904216</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019621598473669</v>
+        <v>1.020163044452504</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024286257087629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02532187421085</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01795775639662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9806290739513644</v>
+        <v>0.9817706539468961</v>
       </c>
       <c r="D24">
-        <v>1.007727376473793</v>
+        <v>1.008735112530242</v>
       </c>
       <c r="E24">
-        <v>0.9905785046672769</v>
+        <v>0.9917074064130211</v>
       </c>
       <c r="F24">
-        <v>1.003736656195062</v>
+        <v>1.004233319807718</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04188023860646</v>
+        <v>1.042390089742067</v>
       </c>
       <c r="J24">
-        <v>1.008893736537426</v>
+        <v>1.009988946798187</v>
       </c>
       <c r="K24">
-        <v>1.021620136186428</v>
+        <v>1.022610546856129</v>
       </c>
       <c r="L24">
-        <v>1.004773117417857</v>
+        <v>1.005881731307895</v>
       </c>
       <c r="M24">
-        <v>1.017698468195055</v>
+        <v>1.018186499229809</v>
       </c>
       <c r="N24">
-        <v>1.00688496500077</v>
+        <v>1.009958083185864</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02257931252012</v>
+        <v>1.022965566178088</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026409274082342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027123554079822</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018494208403514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9879417080748999</v>
+        <v>0.9887557545457381</v>
       </c>
       <c r="D25">
-        <v>1.012549116521598</v>
+        <v>1.013163062292904</v>
       </c>
       <c r="E25">
-        <v>0.9969006470588084</v>
+        <v>0.9977076162956394</v>
       </c>
       <c r="F25">
-        <v>1.009427099253845</v>
+        <v>1.009780411697994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04354328797189</v>
+        <v>1.043854455846834</v>
       </c>
       <c r="J25">
-        <v>1.012881809666535</v>
+        <v>1.013667549662026</v>
       </c>
       <c r="K25">
-        <v>1.024955697704343</v>
+        <v>1.02556041828472</v>
       </c>
       <c r="L25">
-        <v>1.009547267782962</v>
+        <v>1.010341623108136</v>
       </c>
       <c r="M25">
-        <v>1.021880813301905</v>
+        <v>1.022228773181004</v>
       </c>
       <c r="N25">
-        <v>1.008231679303158</v>
+        <v>1.010897353809606</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025889435232032</v>
+        <v>1.026164827825178</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02876484390375</v>
+        <v>1.029206094983482</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019109573118854</v>
       </c>
     </row>
   </sheetData>
